--- a/streetcheck_dictionary.xlsx
+++ b/streetcheck_dictionary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A675"/>
+  <dimension ref="A1:A663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1085,14 +1085,14 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>6-monoacetylmorphine (6-MAM)</t>
+          <t>6-monoacetylmorphine</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>6-monoacetylmorphine (Minorr)</t>
+          <t>6-monoacetylmorphine (6-MAM)</t>
         </is>
       </c>
     </row>
@@ -2422,2735 +2422,2651 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Ecgonine (Minorr)</t>
+          <t>Ecgonine Methyl Ester</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Ecgonine Methyl Ester</t>
+          <t>Ecgonine Methylester (EME)</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Ecgonine Methylester (EME)</t>
+          <t>Ecgonine methyl ester</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Ecgonine methyl ester</t>
+          <t>Egonine methyl ester</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Egonine methyl ester</t>
+          <t>Ephedrine</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Ephedrine</t>
+          <t>Ephedrine or Pseudophedrine (cannot distingush)</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Ephedrine or Pseudophedrine (cannot distingush)</t>
+          <t>Ergosterol</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Ergosterol</t>
+          <t>Erythritol</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Erythritol</t>
+          <t>Estradiol Enanthate</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Estradiol Enanthate</t>
+          <t>Estradiol Valerate</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Estradiol Valerate</t>
+          <t>Ethyl 4-ANPP</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Ethyl 4-ANPP</t>
+          <t>Ethyl 4-Anilinopiperidine-1-Carboxylate</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Ethyl 4-Anilinopiperidine-1-Carboxylate</t>
+          <t>Ethyl Vanillin</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Ethyl Vanillin</t>
+          <t>Ethyl-4-ANP</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Ethyl-4-ANP</t>
+          <t>Ethyl-4-ANPP</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Ethyl-4-ANPP</t>
+          <t>Ethylamphetamine</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Ethylamphetamine</t>
+          <t>Ethylecgonidine</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Ethylecgonidine</t>
+          <t>Etizolam</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Etizolam</t>
+          <t>Etonitazene</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Etonitazene</t>
+          <t>Etonitazepyne</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Etonitazepyne</t>
+          <t>Eutylone</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Eutylone</t>
+          <t>Fentanyl</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Fentanyl</t>
+          <t>Fentanyl HCl / Analogue</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Fentanyl HCl / Analogue</t>
+          <t>Fentanyl HCl / Analogue (BT)</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Fentanyl HCl / Analogue (BT)</t>
+          <t>Fentanyl Methyl Carbamate</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Fentanyl Methyl Carbamate</t>
+          <t>Fentanyl carbamate</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Fentanyl carbamate</t>
+          <t>Fentanyl methyl carbamate</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Fentanyl methyl carbamate</t>
+          <t>Flualprazolam</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Flualprazolam</t>
+          <t>Flubromazepam</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Flubromazepam</t>
+          <t>Flubromazolam</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Flubromazolam</t>
+          <t>Fluorexetamine</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Fluorexetamine</t>
+          <t>Fluoro MBZP (1-methyl-4-benzylpiperazine)</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Fluoro MBZP (1-methyl-4-benzylpiperazine)</t>
+          <t>Fluoro-norfentanyl</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Fluoro-norfentanyl</t>
+          <t>Fluoroamphetamine</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Fluoroamphetamine (Isomer Not Determined)</t>
+          <t>Fumaric Acid</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Fumaric Acid</t>
+          <t>Fumaric acid</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Fumaric acid</t>
+          <t>Gabapentin</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Gabapentin</t>
+          <t>Glycerides (Fats)</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Glycerides (Fats)</t>
+          <t>Glycerin</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Glycerin</t>
+          <t>Guaifenesin</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Guaifenesin</t>
+          <t>Herion</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Herion</t>
+          <t>Heroin</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Heroin</t>
+          <t>Hexamine</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Hexamine</t>
+          <t>Histidine</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Histidine</t>
+          <t>Hydrocodone</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Hydrocodone</t>
+          <t>Hydrocotarnine</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Hydrocotarnine</t>
+          <t>Hydromorphone</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Hydromorphone</t>
+          <t>Hydroxyzine</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Hydroxyzine</t>
+          <t>I-phenethyl-4-propionyloxypiperidine</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>I-phenethyl-4-propionyloxypiperidine</t>
+          <t>I-phenethyl-4-propionyloxypiperridine</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>I-phenethyl-4-propionyloxypiperridine</t>
+          <t>Ibuprofen</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Ibuprofen</t>
+          <t>Inconclusive</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Ibuprofen (AdvilMotrin)</t>
+          <t>Inositol</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Inconclusive (n/a)</t>
+          <t>Isopropylbenzylamine</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Inositol</t>
+          <t>Isotonitazene</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Isopropylbenzylamine</t>
+          <t>JWH-018</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Isotonitazene</t>
+          <t>Kavain</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>JWH-018</t>
+          <t>Ketamine</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Kavain</t>
+          <t>Ketamine Precursor A</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Ketamine</t>
+          <t>LSD</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Ketamine Precursor A</t>
+          <t>Lacosamide</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>LSD</t>
+          <t>Lactose</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Lacosamide</t>
+          <t>Lamotrigine</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Lactose</t>
+          <t>Lauric acid</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Lamotrigine</t>
+          <t>Levamiole</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Lauric acid</t>
+          <t>Levamisole</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Levamiole</t>
+          <t>Levetiracetam</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Levamisole</t>
+          <t>Lidocaine</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Levetiracetam</t>
+          <t>Limonene</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Lidocaine</t>
+          <t>Lisdexamfetamine</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Limonene</t>
+          <t>Lisdexamphetamine</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Lisdexamfetamine</t>
+          <t>Loratadine</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Lisdexamphetamine</t>
+          <t>Lorazepam</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Loratadine</t>
+          <t>Lysergic Acid Diethylamide (LSD)</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Lorazepam</t>
+          <t>MDA</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Lysergic Acid Diethylamide (LSD)</t>
+          <t>MDA-19</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>MDDMA</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>MDA-19</t>
+          <t>MDMA</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>MDDMA</t>
+          <t>MDMA (3 4-METHYLENEDIOXYMETHAMPHETAMINE)</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>MDMA</t>
+          <t>MDMB-4En-PINACA</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>MDMA (3 4-METHYLENEDIOXYMETHAMPHETAMINE)</t>
+          <t>MDMB-4en-PINACA</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>MDMB-4En-PINACA</t>
+          <t>MDMB-5-Methyl INACA</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>MDMB-4en-PINACA</t>
+          <t>MDMB-INACA</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>MDMB-5-Methyl INACA</t>
+          <t>MDPV</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>MDMB-INACA</t>
+          <t>MMB-FUBINACA</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>MDPV</t>
+          <t>Mannitol</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>MMB-FUBINACA</t>
+          <t>Meclizine</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Mannitol</t>
+          <t>Meclonazepam</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Mannitol (Not Set )</t>
+          <t>Meconin</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Mannitol (Not Set)</t>
+          <t>Medetomidine</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Meclizine</t>
+          <t>Melatonin</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Meclonazepam</t>
+          <t>Menthol</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Meconin</t>
+          <t>Mepivacaine</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Medetomidine</t>
+          <t>Mescaline</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Melatonin</t>
+          <t>Metamizole</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Menthol</t>
+          <t>Metamizole OR 4-Methylaminoantipyrine</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Mepivacaine</t>
+          <t>Metandienone</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Mescaline</t>
+          <t>Metformin</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Metamizole</t>
+          <t>Methadone</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Metamizole OR 4-Methylaminoantipyrine</t>
+          <t>Methampetamine</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Metandienone</t>
+          <t>Methamphetamine</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Metformin</t>
+          <t>Methamphetamine |</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Methadone</t>
+          <t>Methandrostenolone</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Methampetamine</t>
+          <t>Methcathinone</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Methamphetamine</t>
+          <t>Methenolone Enanthate</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Methamphetamine ((major))</t>
+          <t>Methhylecgonidine</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Methamphetamine |</t>
+          <t>Methlecgonidine</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Methandrostenolone</t>
+          <t>Methocarbamol</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Methcathinone</t>
+          <t>Methoxetamine</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Methenolone Enanthate</t>
+          <t>Methoxyacetylfentanyl</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Methhylecgonidine</t>
+          <t>Methyl Benzoate</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Methlecgonidine</t>
+          <t>Methyl Ecgonidine (MED)</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Methocarbamol</t>
+          <t>Methyl Ecgonidine (Med)</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Methoxetamine</t>
+          <t>Methyl Salicylate</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Methoxyacetylfentanyl</t>
+          <t>Methyl benzoate</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Methyl Benzoate</t>
+          <t>Methylbenzoate</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Methyl Ecgonidine (MED)</t>
+          <t>Methylcgonidine</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Methyl Ecgonidine (Med)</t>
+          <t>Methylecgonidine</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Methyl Salicylate</t>
+          <t>Methylecgonine</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Methyl benzoate</t>
+          <t>Methylecgonine cinnamate</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Methylbenzoate</t>
+          <t>Methylegondine</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Methylcgonidine</t>
+          <t>Methylenedioxymethamphetamine (MDMA)</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Methylecgonidine</t>
+          <t>Methylmethcathinone</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Methylecgonine</t>
+          <t>Methylone</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Methylecgonine cinnamate</t>
+          <t>Methylphenidate</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Methylegondine</t>
+          <t>Methylsulfonylmethane</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Methylenedioxymethamphetamine (MDMA)</t>
+          <t>Methylsulfonylmethane (MSM or Dimethyl sulfone)</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Methylmethcathinone</t>
+          <t>Methylsulfonylmethane (MSM)</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Methylone</t>
+          <t>Metoclopramide</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Methylphenidate</t>
+          <t>Metodesnitazene</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Methylsulfonylmethane</t>
+          <t>Metonitazene</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Methylsulfonylmethane (MSM or Dimethyl sulfone)</t>
+          <t>Metronidazole</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Methylsulfonylmethane (MSM)</t>
+          <t>Midazolam</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Metoclopramide</t>
+          <t>Mirtazapine</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Metodesnitazene</t>
+          <t>Mitragynine</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Metonitazene</t>
+          <t>Morphine</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Metronidazole</t>
+          <t>N,N-Diethyl-m-toluamide (DEET)</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Midazolam</t>
+          <t>N,N-Dimethylamphetamine</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Mirtazapine</t>
+          <t>N,N-Dimethylamphetamine (DMA)</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Mitragynine</t>
+          <t>N,N-Dimethylpentylone</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Morphine</t>
+          <t>N,N-Dimethyltryptamine (DMT)</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>N,N-Diethyl-m-toluamide (DEET)</t>
+          <t>N-(14-dimethylpentyl)-3,4-DMA</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>N,N-Dimethylamphetamine</t>
+          <t>N-Acetylmethamphetamine</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>N,N-Dimethylamphetamine (DMA)</t>
+          <t>N-Benzyl-N-Cyclohexylamine</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>N,N-Dimethylpentylone</t>
+          <t>N-Boc Norfentanyl</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>N,N-Dimethyltryptamine (DMT)</t>
+          <t>N-BocNorfentanyl</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>N-(14-dimethylpentyl)-3,4-DMA</t>
+          <t>N-Butyl-Aniline</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>N-Acetylmethamphetamine</t>
+          <t>N-Cyclohexyl Methylone</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>N-Benzyl-N-Cyclohexylamine</t>
+          <t>N-Desethyl Etonitazene</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>N-Boc Norfentanyl</t>
+          <t>N-Desethyl Isotonitazene</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>N-Boc Norfentanyl ( 1.00)</t>
+          <t>N-Formylmethamphetamine</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>N-BocNorfentanyl</t>
+          <t>N-Isopropylbenzylamine</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>N-Butyl-Aniline</t>
+          <t>N-Methyl-Norfentanyl</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>N-Cyclohexyl Methylone</t>
+          <t>N-Methyliminopropylbenzene</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>N-Desethyl Etonitazene</t>
+          <t>N-N-dimethyltryptamine</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>N-Desethyl Isotonitazene</t>
+          <t>N-Phenethyl-N-Phenylpropionamide</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>N-Formylmethamphetamine</t>
+          <t>N-Phenyl-Acetamide</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>N-Isopropylbenzylamine</t>
+          <t>N-Phenylacetyl-L-Prolylglycine Ethyl Ester</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>N-Methyl-Norfentanyl</t>
+          <t>N-Phenylpropanamide</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>N-Methyliminopropylbenzene</t>
+          <t>N-Propionitrile Chlorphine</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>N-N-dimethyltryptamine</t>
+          <t>N-Propionyl Norfentanyl</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>N-Phenethyl-N-Phenylpropionamide</t>
+          <t>N-Propionylfentanyl</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>N-Phenyl-Acetamide</t>
+          <t>N-Propionylnorfentanyl</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>N-Phenylacetyl-L-Prolylglycine Ethyl Ester</t>
+          <t>N-Pyrrolidino Etonitazene</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>N-Phenylpropanamide</t>
+          <t>N-Pyrrolidino Protonitazene</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>N-Propionitrile Chlorphine</t>
+          <t>N-Pyrrolidino-Protonitazene</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>N-Propionyl Norfentanyl</t>
+          <t>N-butyl-aniline</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>N-Propionylfentanyl</t>
+          <t>N-desethyl Isotonitazene</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>N-Propionylnorfentanyl</t>
+          <t>N-ethyl Phenethylamine</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>N-Pyrrolidino Etonitazene</t>
+          <t>N-ethylamphetamine</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>N-Pyrrolidino Protonitazene</t>
+          <t>N-ethylpentylone</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>N-Pyrrolidino-Protonitazene</t>
+          <t>N-isopropylbenzylamine</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>N-butyl-aniline</t>
+          <t>N-methyl Norfentanyl</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>N-desethyl Isotonitazene</t>
+          <t>N-methyl fentanyl</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>N-ethyl Phenethylamine</t>
+          <t>N-methyl norfentanyl</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>N-ethylamphetamine</t>
+          <t>N-methyl-fentanyl</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>N-ethylpentylone</t>
+          <t>N-phenylpropanamide</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>N-isopropylbenzylamine</t>
+          <t>N-propionyl Norfentanyl</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>N-methyl Norfentanyl</t>
+          <t>N-propylamphetamine</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>N-methyl fentanyl</t>
+          <t>N-propylaphetamine</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>N-methyl norfentanyl</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>N-methyl-fentanyl</t>
+          <t>NMT</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>N-phenylpropanamide</t>
+          <t>NPP</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>N-propionyl Norfentanyl</t>
+          <t>N_BOC Norfentanyl</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>N-propylamphetamine</t>
+          <t>Naloxone</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>N-propylaphetamine</t>
+          <t>Naltrexone</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Naproxen</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>NMT</t>
+          <t>Natural Cannabinoids</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>NPP</t>
+          <t>Niacinamide</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>N_BOC Norfentanyl</t>
+          <t>Niacinamide (Nicotanimide)</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Naloxone</t>
+          <t>Nicotinamide</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Naltrexone</t>
+          <t>Nicotine</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Naproxen</t>
+          <t>Nicotinine</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Natural Cannabinoids</t>
+          <t>No Compounds Of Interest Detected</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Niacinamide</t>
+          <t>No Drug Sustance Detected</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Niacinamide (Nicotanimide)</t>
+          <t>No active illicit substances detected</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Nicotinamide</t>
+          <t>No substance detected</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Nicotine</t>
+          <t>No substances detected</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Nicotinine</t>
+          <t>No testable sample was present</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>No Compounds Of Interest Detected</t>
+          <t>Non-Specific Phthalate</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>No Drug Sustance(s) Detected</t>
+          <t>None Detected</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>No active illicit substances detected</t>
+          <t>None detected</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>No substance detected</t>
+          <t>Noramidopyrine</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>No substances detected</t>
+          <t>Norcocaine</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>No testable sample was present</t>
+          <t>Norfentanyl</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Non-Specific Phthalate</t>
+          <t>Norketamine</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>None Detected</t>
+          <t>Noscapine</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>None Detected (N/A)</t>
+          <t>Not Tested</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>None Detected (None Detected)</t>
+          <t>O-Desmethyltramadol</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>None Detected (Null)</t>
+          <t>Octocrylene</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>None detected</t>
+          <t>Oleamide</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Noramidopyrine</t>
+          <t>Ondansetron</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Norcocaine</t>
+          <t>Ortho-Methylfentanyl</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Norfentanyl</t>
+          <t>Oxandrolone</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Norketamine</t>
+          <t>Oxcarbazepine</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Noscapine</t>
+          <t>Oxycodone</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Not Tested</t>
+          <t>P-Fluoro 4-Anilinopiperidine</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>O-Desmethyltramadol</t>
+          <t>P-Fluoro Phenethyl 4-ANPP</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Octocrylene</t>
+          <t>P-Fluorofentanyl</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Oleamide</t>
+          <t>PCP</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Ondansetron</t>
+          <t>PEG 7</t>
         </is>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Ortho-Methylfentanyl</t>
+          <t>PEG 8</t>
         </is>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Oxandrolone</t>
+          <t>PEG-7mer</t>
         </is>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Oxcarbazepine</t>
+          <t>PEG-8</t>
         </is>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Oxycodone</t>
+          <t>PEG-8mer</t>
         </is>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>P-Fluoro 4-Anilinopiperidine</t>
+          <t>PEG-9</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>P-Fluoro Phenethyl 4-ANPP</t>
+          <t>Palmitic Acid</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>P-Fluorofentanyl</t>
+          <t>Papaverine</t>
         </is>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>PCP</t>
+          <t>Para-bromofentanyl</t>
         </is>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>PEG 7</t>
+          <t>Para-fluoro Fentanyl</t>
         </is>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>PEG 8</t>
+          <t>Para-fluoro fentanyl</t>
         </is>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>PEG-7mer</t>
+          <t>Para-fluoro valeryl fentanyl</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>PEG-8</t>
+          <t>Para-fluoro-4-ANPP</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>PEG-8mer</t>
+          <t>Para-fluoro-Phenethyl-4-ANPP</t>
         </is>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>PEG-9</t>
+          <t>Para-fluoro-phenethyl-4-ANPP</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Palmitic Acid</t>
+          <t>Para-fluoroacetyl fentanyl</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Papaverine</t>
+          <t>Para-fluoroacetylfentanyl</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Para-bromofentanyl</t>
+          <t>Para-fluorofentanyl</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Para-fluoro Fentanyl</t>
+          <t>Paracetamol</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Para-fluoro fentanyl</t>
+          <t>Pavaverine</t>
         </is>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Para-fluoro valeryl fentanyl</t>
+          <t>Pending - See Note</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Para-fluoro-4-ANPP</t>
+          <t>Pending Identification</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Para-fluoro-Phenethyl-4-ANPP</t>
+          <t>Pending Nitazene</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Para-fluoro-phenethyl-4-ANPP</t>
+          <t>Phenacetin</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Para-fluoroacetyl fentanyl</t>
+          <t>Phenathyl 4-ANPP</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Para-fluoroacetylfentanyl</t>
+          <t>Phenazolam</t>
         </is>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Para-fluorofentanyl</t>
+          <t>Phenazone</t>
         </is>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Paracetamol</t>
+          <t>Pheneithyl 4-ANPP</t>
         </is>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Pavaverine</t>
+          <t>Phenethhyl 4-ANPP</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Pending - See Note</t>
+          <t>Phenethyl</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Pending Identification</t>
+          <t>Phenethyl 4-ANPP</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Pending Nitazene</t>
+          <t>Phenethyl Chloride</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Phenacetin</t>
+          <t>Phenethyl a-ANPP</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Phenathyl 4-ANPP</t>
+          <t>Phenethyl bromide</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Phenazolam</t>
+          <t>Phenethyl chloride</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Phenazone</t>
+          <t>Phenethyl-4-ANPP</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Pheneithyl 4-ANPP</t>
+          <t>Phenethyl4-ANPP</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Phenethhyl 4-ANPP</t>
+          <t>Phenethylbromide</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Phenethyl</t>
+          <t>Phenibut</t>
         </is>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Phenethyl 4-ANPP</t>
+          <t>Phenothiazine</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Phenethyl Chloride</t>
+          <t>Phentermine</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Phenethyl a-ANPP</t>
+          <t>Phenyl Fentanyl</t>
         </is>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Phenethyl bromide</t>
+          <t>Phenylacetyl Fentanyl</t>
         </is>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Phenethyl chloride</t>
+          <t>Phenylephrine</t>
         </is>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Phenethyl-4-ANPP</t>
+          <t>Phenylfentanyl</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Phenethyl4-ANPP</t>
+          <t>Phenylpropanolamine</t>
         </is>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>Phenethylbromide</t>
+          <t>Phhenethyl 4-ANPP</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>Phenibut</t>
+          <t>Pholedrine</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Phenothiazine</t>
+          <t>Piperine</t>
         </is>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Phentermine</t>
+          <t>Prednisone</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Phenyl Fentanyl</t>
+          <t>Pregabalin</t>
         </is>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Phenylacetyl Fentanyl</t>
+          <t>Proadifen</t>
         </is>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>Phenylephrine</t>
+          <t>Procaine</t>
         </is>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Phenylfentanyl</t>
+          <t>Procaine (tace)</t>
         </is>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Phenylpropanolamine</t>
+          <t>Progesterone</t>
         </is>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Phhenethyl 4-ANPP</t>
+          <t>Promethazine</t>
         </is>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Pholedrine</t>
+          <t>Propionyl-fluoronorfentanyl</t>
         </is>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Piperine</t>
+          <t>Propranolol</t>
         </is>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Prednisone</t>
+          <t>Protonitazene</t>
         </is>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Pregabalin</t>
+          <t>Pseudoephedrine</t>
         </is>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Proadifen</t>
+          <t>Psilocin</t>
         </is>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Procaine</t>
+          <t>Psilocin (Psilocybin)</t>
         </is>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Procaine (tace)</t>
+          <t>Psilocybin / Psilocin</t>
         </is>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Progesterone</t>
+          <t>Pyridoxine</t>
         </is>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Promethazine</t>
+          <t>Pyridoxine (Vitamin B6)</t>
         </is>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Propionyl-fluoronorfentanyl</t>
+          <t>Quetiapine</t>
         </is>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Propranolol</t>
+          <t>Quinidine</t>
         </is>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Protonitazene</t>
+          <t>Quinidine/Quinine</t>
         </is>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>Pseudoephedrine</t>
+          <t>Quinidine/quinine</t>
         </is>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>Psilocin</t>
+          <t>Quinine</t>
         </is>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>Psilocin (Psilocybin)</t>
+          <t>Quinine Caffeine Fentanyl</t>
         </is>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>Psilocybin / Psilocin</t>
+          <t>Retalinic acid</t>
         </is>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>Pyridoxine</t>
+          <t>Ritalinic acid</t>
         </is>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>Pyridoxine (Vitamin B6)</t>
+          <t>SR_17018</t>
         </is>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>Quetiapine</t>
+          <t>Salicylic Acid</t>
         </is>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>Quinidine</t>
+          <t>Sample Damaged In Transit</t>
         </is>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Quinidine/Quinine</t>
+          <t>Sertraline</t>
         </is>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>Quinidine/quinine</t>
+          <t>Sildenafil</t>
         </is>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>Quinine</t>
+          <t>Sorbitol</t>
         </is>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Quinine Caffeine Fentanyl</t>
+          <t>Stearic Acid</t>
         </is>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>Retalinic acid</t>
+          <t>Sugar</t>
         </is>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>Ritalinic acid</t>
+          <t>Sulfamethoxazole</t>
         </is>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>SR_17018</t>
+          <t>Synthesis Byproducts</t>
         </is>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>Salicylic Acid</t>
+          <t>Synthetic Cathinone</t>
         </is>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Sample Damaged In Transit</t>
+          <t>T-Boc Norfentanyl</t>
         </is>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>Sertraline</t>
+          <t>TCP</t>
         </is>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Sildenafil</t>
+          <t>THC</t>
         </is>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>Sorbitol</t>
+          <t>TMA-2</t>
         </is>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>Stearic Acid</t>
+          <t>TMP</t>
         </is>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Sugar</t>
+          <t>TRUE</t>
         </is>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>Sulfamethoxazole</t>
+          <t>Tadalafil</t>
         </is>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>Synthesis Byproducts</t>
+          <t>Tamoxifen</t>
         </is>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>Synthetic Cathinone</t>
+          <t>Tapentadol</t>
         </is>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>T-Boc Norfentanyl</t>
+          <t>Temazepam</t>
         </is>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>TCP</t>
+          <t>Tentative Identification - See Note</t>
         </is>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>THC</t>
+          <t>TentativeIdentification-SeeNote</t>
         </is>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>THC (or isomer)</t>
+          <t>Testosterone Cypionate</t>
         </is>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>TMA-2</t>
+          <t>Testosterone Enanthate</t>
         </is>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>TMP</t>
+          <t>Testosterone cypionate</t>
         </is>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>Testostrone Enanthate</t>
         </is>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>Tadalafil</t>
+          <t>Tetracaine</t>
         </is>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>Tamoxifen</t>
+          <t>Tetramisole / Levamisole</t>
         </is>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>Tapentadol</t>
+          <t>Tetramisole/Levamisole</t>
         </is>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>Temazepam</t>
+          <t>Thebaine</t>
         </is>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Tentative Identification - See Note</t>
+          <t>Theobromine</t>
         </is>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>TentativeIdentification-SeeNote</t>
+          <t>Tianeptine</t>
         </is>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>Testosterone Cypionate</t>
+          <t>Tiletamine</t>
         </is>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>Testosterone Enanthate</t>
+          <t>Tizanidine</t>
         </is>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>Testosterone cypionate</t>
+          <t>Topiramate</t>
         </is>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Testostrone Enanthate</t>
+          <t>Tramadol</t>
         </is>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>Tetracaine</t>
+          <t>Trazadone</t>
         </is>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>Tetramisole / Levamisole</t>
+          <t>Trazodone</t>
         </is>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>Tetramisole/Levamisole</t>
+          <t>Trenbolone Enanthate</t>
         </is>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>Thebaine</t>
+          <t>Triacetin</t>
         </is>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Theobromine</t>
+          <t>Triethyl citrate tentative</t>
         </is>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>Tianeptine</t>
+          <t>Trifluoromethylphenlpeperazine (TFMPP)</t>
         </is>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>Tiletamine</t>
+          <t>Trimethoxyamphetamine</t>
         </is>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>Tizanidine</t>
+          <t>Tropacocaine</t>
         </is>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>Topiramate</t>
+          <t>Unidentified</t>
         </is>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Tramadol</t>
+          <t>Unknown Substance</t>
         </is>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>Trazadone</t>
+          <t>Unknown amphetamine</t>
         </is>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>Trazodone</t>
+          <t>Valeryl Fentanyl</t>
         </is>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>Trenbolone Enanthate</t>
+          <t>Valeryl fentanyl</t>
         </is>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>Triacetin</t>
+          <t>Valerylfentanyl</t>
         </is>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>Triethyl citrate tentative</t>
+          <t>Vanillin</t>
         </is>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>Trifluoromethylphenlpeperazine (TFMPP)</t>
+          <t>Vitamin C</t>
         </is>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>Trimethoxyamphetamine</t>
+          <t>Vitamin E</t>
         </is>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>Tropacocaine</t>
+          <t>Vitamin E Acetate</t>
         </is>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>Unidentified</t>
+          <t>Xylaxine</t>
         </is>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Unknown Substance</t>
+          <t>Xylazine</t>
         </is>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>Unknown amphetamine</t>
+          <t>Zolpidem</t>
         </is>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>Valeryl Fentanyl</t>
+          <t>acetyl fentanyl</t>
         </is>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>Valeryl fentanyl</t>
+          <t>alpha-D2PV</t>
         </is>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>Valerylfentanyl</t>
+          <t>alpha-PHP</t>
         </is>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Vanillin</t>
+          <t>alpha-PiHP</t>
         </is>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>Vitamin C</t>
+          <t>alpha-Pyrrolidinohexanophenone (a-PHP)</t>
         </is>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>Vitamin E</t>
+          <t>beta-Hydroxy Fentanyl</t>
         </is>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>Vitamin E Acetate</t>
+          <t>beta-Methoxy 2C-B</t>
         </is>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>Xylaxine</t>
+          <t>bis(2222-tetramethyl-4-pipderidyl) sebecate</t>
         </is>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Xylazine</t>
+          <t>boc-Norfentanyl</t>
         </is>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>Xylazine (75.00 | )</t>
+          <t>delta-8-THC</t>
         </is>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>Xylazine (Super Trace)</t>
+          <t>ethyl-4-ANPP</t>
         </is>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>Zolpidem</t>
+          <t>glycerin</t>
         </is>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>acetyl fentanyl</t>
+          <t>methyl ecgonidine (MED)</t>
         </is>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>alpha-D2PV</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>alpha-PHP</t>
+          <t>ortho-Methyl-4-ANPP</t>
         </is>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>alpha-PiHP</t>
+          <t>ortho-Methylfentanyl</t>
         </is>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>alpha-Pyrrolidinohexanophenone (a-PHP)</t>
+          <t>para-Fluoro Norfentanyl</t>
         </is>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>beta-Hydroxy Fentanyl</t>
+          <t>para-Fluoro Valeryl Fentanyl</t>
         </is>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>beta-Methoxy 2C-B</t>
+          <t>para-Fluoro-4-ANPP</t>
         </is>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>bis(2222-tetramethyl-4-pipderidyl) sebecate</t>
+          <t>para-Fluoro-4-ANPP + 4-ANPP</t>
         </is>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>boc-Norfentanyl</t>
+          <t>para-Fluoro-Phenethyl-4-ANPP</t>
         </is>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>delta-8-THC</t>
+          <t>para-Fluorofentanyl</t>
         </is>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>ethyl-4-ANPP</t>
+          <t>para-Methyl Fentanyl</t>
         </is>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>glycerin</t>
+          <t>phenethyl 4-ANPP</t>
         </is>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>methyl ecgonidine (MED)</t>
+          <t>t-Boc</t>
         </is>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>ortho-Methyl-4-ANPP</t>
+          <t>threo-4-Methylmethylphenidate (4-MeTMP)</t>
         </is>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
-        <is>
-          <t>ortho-Methylfentanyl</t>
-        </is>
-      </c>
-    </row>
-    <row r="664">
-      <c r="A664" t="inlineStr">
-        <is>
-          <t>para-Fluoro Norfentanyl</t>
-        </is>
-      </c>
-    </row>
-    <row r="665">
-      <c r="A665" t="inlineStr">
-        <is>
-          <t>para-Fluoro Valeryl Fentanyl</t>
-        </is>
-      </c>
-    </row>
-    <row r="666">
-      <c r="A666" t="inlineStr">
-        <is>
-          <t>para-Fluoro-4-ANPP</t>
-        </is>
-      </c>
-    </row>
-    <row r="667">
-      <c r="A667" t="inlineStr">
-        <is>
-          <t>para-Fluoro-4-ANPP + 4-ANPP</t>
-        </is>
-      </c>
-    </row>
-    <row r="668">
-      <c r="A668" t="inlineStr">
-        <is>
-          <t>para-Fluoro-Phenethyl-4-ANPP</t>
-        </is>
-      </c>
-    </row>
-    <row r="669">
-      <c r="A669" t="inlineStr">
-        <is>
-          <t>para-Fluorofentanyl</t>
-        </is>
-      </c>
-    </row>
-    <row r="670">
-      <c r="A670" t="inlineStr">
-        <is>
-          <t>para-Methyl Fentanyl</t>
-        </is>
-      </c>
-    </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
-        <is>
-          <t>phenethyl 4-ANPP</t>
-        </is>
-      </c>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>t-Boc</t>
-        </is>
-      </c>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>threo-4-Methylmethylphenidate (4-MeTMP)</t>
-        </is>
-      </c>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
         <is>
           <t>Α-Pyrrolidinoisohexanophenone</t>
         </is>

--- a/streetcheck_dictionary.xlsx
+++ b/streetcheck_dictionary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A663"/>
+  <dimension ref="A1:C663"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,8 +434,20 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>unedited</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>propercase</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>levenshtein</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -444,6 +456,14 @@
           <t>1,2-Dibromo-4,5-Methylenedioxybenzene</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1,2-Dibromo-4,5-Methylenedioxybenzene</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -451,6 +471,14 @@
           <t>1,3-Diacetin</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1,3-Diacetin</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -458,6 +486,14 @@
           <t>1,4-Butanediol</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1,4-Butanediol</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -465,6 +501,14 @@
           <t>1-(2-Chlorophenyl)(Methylimino)MethylCyclopentanol</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1-(2-Chlorophenyl)(Methylimino)Methylcyclopentanol</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -472,6 +516,14 @@
           <t>1-(2-chlorophenyl)(methylimino)methylcyclopentanol</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1-(2-Chlorophenyl)(Methylimino)Methylcyclopentanol</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -479,6 +531,14 @@
           <t>1-Boc-4-(4-Fluoro-Phenylamino)-Piperidine</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1-Boc-4-(4-Fluoro-Phenylamino)-Piperidine</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -486,6 +546,14 @@
           <t>1-Phenethyl-4-Hydroxypiperidine</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1-Phenethyl-4-Hydroxypiperidine</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -493,6 +561,14 @@
           <t>1-Phenethyl-4-Propionyloxypiperidine</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1-Phenethyl-4-Propionyloxypiperidine</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -500,6 +576,14 @@
           <t>1-Phenethyl-4-piperidone (NPP)</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1-Phenethyl-4-Piperidone (Npp)</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -507,6 +591,14 @@
           <t>1-Phenethyl-4-propionyloxypiperidine</t>
         </is>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1-Phenethyl-4-Propionyloxypiperidine</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -514,6 +606,14 @@
           <t>1-Phenethylpiperidin-4-ol</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1-Phenethylpiperidin-4-Ol</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -521,6 +621,14 @@
           <t>1-Propionyl-4-Anilinopiperidine</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1-Propionyl-4-Anilinopiperidine</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -528,6 +636,14 @@
           <t>1-Propionyl-4-anilinopiperidine</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1-Propionyl-4-Anilinopiperidine</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -535,6 +651,14 @@
           <t>1-Testosterone Cypionate</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1-Testosterone Cypionate</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -542,6 +666,14 @@
           <t>1-boc-4-(4-fluorophenylamino)piperidine</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1-Boc-4-(4-Fluorophenylamino)Piperidine</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -549,6 +681,14 @@
           <t>1-phenethyl-4-hydroxypiperidine</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1-Phenethyl-4-Hydroxypiperidine</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -556,6 +696,14 @@
           <t>1-phenethyl-4-propionyloxypiperidine</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1-Phenethyl-4-Propionyloxypiperidine</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -563,6 +711,14 @@
           <t>1-phenethyl-4-propionyloxypiperidine.</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1-Phenethyl-4-Propionyloxypiperidine.</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -570,6 +726,14 @@
           <t>2,2,6,6-Tetramethyl-4-Piperidinol</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2,2,6,6-Tetramethyl-4-Piperidinol</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -577,6 +741,14 @@
           <t>2,2,6,6-tetramethyl-4-piperidinol</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2,2,6,6-Tetramethyl-4-Piperidinol</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -584,6 +756,14 @@
           <t>2-Fluoro-2-Oxo PCE</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2-Fluoro-2-Oxo Pce</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -591,6 +771,14 @@
           <t>2-Fluoro-2-Oxo-PCE</t>
         </is>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2-Fluoro-2-Oxo-Pce</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -598,6 +786,14 @@
           <t>2-Fluoro-2-oxo PCE</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2-Fluoro-2-Oxo Pce</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -605,6 +801,14 @@
           <t>2-Fluoro-2-oxo-PCE</t>
         </is>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2-Fluoro-2-Oxo-Pce</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -612,6 +816,14 @@
           <t>2-Methyl-1,2,3,4-Tetrahydro-B-Carboline</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2-Methyl-1,2,3,4-Tetrahydro-B-Carboline</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -619,6 +831,14 @@
           <t>2-Phenethylamine</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2-Phenethylamine</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -626,6 +846,14 @@
           <t>2-fluoro-2-oxo-PCE</t>
         </is>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2-Fluoro-2-Oxo-Pce</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -633,6 +861,14 @@
           <t>2-oxo-3-hydroxy-LSD</t>
         </is>
       </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2-Oxo-3-Hydroxy-Lsd</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -640,6 +876,14 @@
           <t>2-phenethylamine</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2-Phenethylamine</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -647,6 +891,14 @@
           <t>2C-B</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2C-B</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -654,6 +906,14 @@
           <t>2C-E</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2C-E</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -661,6 +921,14 @@
           <t>2C-H</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2C-H</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -668,6 +936,14 @@
           <t>2CB</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2Cb</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -675,6 +951,14 @@
           <t>2c-b</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2C-B</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -682,6 +966,14 @@
           <t>3,4-Dimethoxyphenethylamine</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>3,4-Dimethoxyphenethylamine</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -689,6 +981,14 @@
           <t>3,4-MDMA</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>3,4-Mdma</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -696,6 +996,14 @@
           <t>3,4-Methylenedioxy-Α-Cyclohexylaminopropiophenone</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>3,4-Methylenedioxy-Α-Cyclohexylaminopropiophenone</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -703,6 +1011,14 @@
           <t>3,4-Methylenedioxy-Α-Isopropylaminobutiophenone</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>3,4-Methylenedioxy-Α-Isopropylaminobutiophenone</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -710,6 +1026,14 @@
           <t>3,4-Methylenedioxyamphetamine (MDA)</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>3,4-Methylenedioxyamphetamine (Mda)</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -717,6 +1041,14 @@
           <t>3,4-Methylenedioxypropiophenone</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>3,4-Methylenedioxypropiophenone</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -724,6 +1056,14 @@
           <t>3-Hydroxy-PCP (3-HO-PCP)</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>3-Hydroxy-Pcp (3-Ho-Pcp)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -731,6 +1071,14 @@
           <t>3-MeO-PCE</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>3-Meo-Pce</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -738,6 +1086,14 @@
           <t>3-Methoxy-PCP</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>3-Methoxy-Pcp</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -745,6 +1101,14 @@
           <t>3-Monoacetylmorphine</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>3-Monoacetylmorphine</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -752,6 +1116,14 @@
           <t>3-Monoacetylmorphine (3-MAM)</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>3-Monoacetylmorphine (3-Mam)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -759,6 +1131,14 @@
           <t>4 ANPP</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>4 Anpp</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -766,6 +1146,14 @@
           <t>4'-Methyl fentanyl</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>4'-Methyl Fentanyl</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -773,6 +1161,14 @@
           <t>4-ANBocP</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>4-Anbocp</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -780,6 +1176,14 @@
           <t>4-ANPP</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>4-Anpp</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -787,6 +1191,14 @@
           <t>4-Acetoxy DMT</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>4-Acetoxy Dmt</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -794,6 +1206,14 @@
           <t>4-Anilino-1-Boc-Piperidine</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>4-Anilino-1-Boc-Piperidine</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -801,6 +1221,14 @@
           <t>4-Anilino-boc-piperidine (4-ANBocP)</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>4-Anilino-Boc-Piperidine (4-Anbocp)</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -808,6 +1236,14 @@
           <t>4-Anilinopiperidine</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>4-Anilinopiperidine</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -815,6 +1251,14 @@
           <t>4-Chlorofentanyl</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>4-Chlorofentanyl</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -822,6 +1266,14 @@
           <t>4-Fluoro-N-(2-phenylethyl)aniline</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>4-Fluoro-N-(2-Phenylethyl)Aniline</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -829,6 +1281,14 @@
           <t>4-Fluoro-Phenethyl-4-ANPP</t>
         </is>
       </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>4-Fluoro-Phenethyl-4-Anpp</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -836,6 +1296,14 @@
           <t>4-Fluoroacetylfentanyl</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>4-Fluoroacetylfentanyl</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -843,6 +1311,14 @@
           <t>4-Fluorofentanyl</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>4-Fluorofentanyl</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -850,6 +1326,14 @@
           <t>4-Fluorofetanyl</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>4-Fluorofetanyl</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -857,6 +1341,14 @@
           <t>4-Fluoromethylphenidate</t>
         </is>
       </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>4-Fluoromethylphenidate</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -864,6 +1356,14 @@
           <t>4-Fluoufentanyl</t>
         </is>
       </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>4-Fluoufentanyl</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -871,6 +1371,14 @@
           <t>4-Flurofentanyl</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>4-Flurofentanyl</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -878,6 +1386,14 @@
           <t>4-Hydroxy-MET</t>
         </is>
       </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>4-Hydroxy-Met</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -885,6 +1401,14 @@
           <t>4-Lidocaine</t>
         </is>
       </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>4-Lidocaine</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -892,6 +1416,14 @@
           <t>4-Methylmethcathinone</t>
         </is>
       </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>4-Methylmethcathinone</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -899,6 +1431,14 @@
           <t>4-Piperidone</t>
         </is>
       </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>4-Piperidone</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -906,6 +1446,14 @@
           <t>4-anilino-1-benzylpiperidine</t>
         </is>
       </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>4-Anilino-1-Benzylpiperidine</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -913,6 +1461,14 @@
           <t>4-anilino-1-boc-piperidine</t>
         </is>
       </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>4-Anilino-1-Boc-Piperidine</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -920,6 +1476,14 @@
           <t>4-anilinopiperidine</t>
         </is>
       </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>4-Anilinopiperidine</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -927,6 +1491,14 @@
           <t>4-aniliopiperidine</t>
         </is>
       </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>4-Aniliopiperidine</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -934,6 +1506,14 @@
           <t>4-chloro-4-ANPP</t>
         </is>
       </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>4-Chloro-4-Anpp</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -941,6 +1521,14 @@
           <t>4-ethyl amphetamine</t>
         </is>
       </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>4-Ethyl Amphetamine</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -948,6 +1536,14 @@
           <t>4-ethylamphetamine</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>4-Ethylamphetamine</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -955,6 +1551,14 @@
           <t>4-fluoro-norfentanyl</t>
         </is>
       </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>4-Fluoro-Norfentanyl</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -962,6 +1566,14 @@
           <t>4F-Pheneithyl-4-ANPP</t>
         </is>
       </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>4F-Pheneithyl-4-Anpp</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -969,6 +1581,14 @@
           <t>4F-Phenethyl 4-ANPP</t>
         </is>
       </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>4F-Phenethyl 4-Anpp</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -976,6 +1596,14 @@
           <t>4F-Phenethyl-4-ANPP</t>
         </is>
       </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>4F-Phenethyl-4-Anpp</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -983,6 +1611,14 @@
           <t>5-Fluoro ADB</t>
         </is>
       </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>5-Fluoro Adb</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -990,6 +1626,14 @@
           <t>5-Hydroxymethylfurfural</t>
         </is>
       </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>5-Hydroxymethylfurfural</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -997,6 +1641,14 @@
           <t>5-Methoxy Nipt</t>
         </is>
       </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>5-Methoxy Nipt</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1004,6 +1656,14 @@
           <t>5-Methyl Etodesnitazene</t>
         </is>
       </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>5-Methyl Etodesnitazene</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -1011,6 +1671,14 @@
           <t>5-OH-DMT</t>
         </is>
       </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>5-Oh-Dmt</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -1018,6 +1686,14 @@
           <t>5-methoxy-N-methyl-N-isopropyltryptamine (5-MeO-MiPT)</t>
         </is>
       </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>5-Methoxy-N-Methyl-N-Isopropyltryptamine (5-Meo-Mipt)</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -1025,6 +1701,14 @@
           <t>6- Monoacetylmorphine</t>
         </is>
       </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>6- Monoacetylmorphine</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -1032,6 +1716,14 @@
           <t>6-Acetylcodeine</t>
         </is>
       </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>6-Acetylcodeine</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -1039,6 +1731,14 @@
           <t>6-Acetylmorphine</t>
         </is>
       </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>6-Acetylmorphine</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -1046,6 +1746,14 @@
           <t>6-Aceylmorphine</t>
         </is>
       </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>6-Aceylmorphine</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -1053,6 +1761,14 @@
           <t>6-Monoacetylcodeine</t>
         </is>
       </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>6-Monoacetylcodeine</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -1060,6 +1776,14 @@
           <t>6-Monoacetylmorphine</t>
         </is>
       </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>6-Monoacetylmorphine</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -1067,6 +1791,14 @@
           <t>6-Monoacetylmorphine (6-MAM)</t>
         </is>
       </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>6-Monoacetylmorphine (6-Mam)</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -1074,6 +1806,14 @@
           <t>6-acetylcodeine</t>
         </is>
       </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>6-Acetylcodeine</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -1081,6 +1821,14 @@
           <t>6-acetylmorphine</t>
         </is>
       </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>6-Acetylmorphine</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -1088,6 +1836,14 @@
           <t>6-monoacetylmorphine</t>
         </is>
       </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>6-Monoacetylmorphine</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -1095,6 +1851,14 @@
           <t>6-monoacetylmorphine (6-MAM)</t>
         </is>
       </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>6-Monoacetylmorphine (6-Mam)</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -1102,6 +1866,14 @@
           <t>8-Aminoclonazolam</t>
         </is>
       </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>8-Aminoclonazolam</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -1109,6 +1881,14 @@
           <t>A-ANPP</t>
         </is>
       </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>A-Anpp</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -1116,6 +1896,14 @@
           <t>AB-MDMSBA</t>
         </is>
       </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Ab-Mdmsba</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -1123,6 +1911,14 @@
           <t>ADB-BINACA/BUTINACA</t>
         </is>
       </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Adb-Binaca/Butinaca</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -1130,6 +1926,14 @@
           <t>ADB-BUTINACA</t>
         </is>
       </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Adb-Butinaca</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -1137,6 +1941,14 @@
           <t>Acetaminophen</t>
         </is>
       </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Acetaminophen</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -1144,6 +1956,14 @@
           <t>Acetanilide</t>
         </is>
       </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Acetanilide</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -1151,6 +1971,14 @@
           <t>Acetominophen</t>
         </is>
       </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Acetominophen</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -1158,6 +1986,14 @@
           <t>Acetyl Fentanyl</t>
         </is>
       </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Acetyl Fentanyl</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -1165,6 +2001,14 @@
           <t>Acetyl clonidine</t>
         </is>
       </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Acetyl Clonidine</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -1172,6 +2016,14 @@
           <t>Acetyl fentanyl</t>
         </is>
       </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Acetyl Fentanyl</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -1179,6 +2031,14 @@
           <t>Acetylcodeine</t>
         </is>
       </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Acetylcodeine</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -1186,6 +2046,14 @@
           <t>Acetylfentanyl</t>
         </is>
       </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Acetylfentanyl</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -1193,6 +2061,14 @@
           <t>Acetylprocaine</t>
         </is>
       </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Acetylprocaine</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -1200,6 +2076,14 @@
           <t>Acetylsalicylic Acid</t>
         </is>
       </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Acetylsalicylic Acid</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -1207,6 +2091,14 @@
           <t>Acryl Fentanyl</t>
         </is>
       </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Acryl Fentanyl</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -1214,6 +2106,14 @@
           <t>Acryl fentanyl</t>
         </is>
       </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Acryl Fentanyl</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -1221,6 +2121,14 @@
           <t>Acryl fetanyl</t>
         </is>
       </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Acryl Fetanyl</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -1228,6 +2136,14 @@
           <t>Acrylfentanyl</t>
         </is>
       </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Acrylfentanyl</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -1235,6 +2151,14 @@
           <t>Acteminophen</t>
         </is>
       </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Acteminophen</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -1242,6 +2166,14 @@
           <t>Ajmaline</t>
         </is>
       </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Ajmaline</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -1249,6 +2181,14 @@
           <t>Alprazolam</t>
         </is>
       </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Alprazolam</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -1256,6 +2196,14 @@
           <t>Amantadine</t>
         </is>
       </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Amantadine</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -1263,6 +2211,14 @@
           <t>Aminophenazone</t>
         </is>
       </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Aminophenazone</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -1270,6 +2226,14 @@
           <t>Aminopyrine</t>
         </is>
       </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Aminopyrine</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -1277,6 +2241,14 @@
           <t>Aminorex</t>
         </is>
       </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Aminorex</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -1284,6 +2256,14 @@
           <t>Amphetamine</t>
         </is>
       </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Amphetamine</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -1291,6 +2271,14 @@
           <t>Amphetamine Sulfate</t>
         </is>
       </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Amphetamine Sulfate</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -1298,6 +2286,14 @@
           <t>Aniline</t>
         </is>
       </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Aniline</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -1305,6 +2301,14 @@
           <t>Arginine</t>
         </is>
       </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Arginine</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -1312,6 +2316,14 @@
           <t>Aripirazole</t>
         </is>
       </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Aripirazole</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -1319,6 +2331,14 @@
           <t>Aspirin</t>
         </is>
       </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Aspirin</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -1326,6 +2346,14 @@
           <t>Atorvastatin</t>
         </is>
       </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Atorvastatin</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -1333,6 +2361,14 @@
           <t>Atropine OR Hyoscyamine</t>
         </is>
       </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Atropine Or Hyoscyamine</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -1340,6 +2376,14 @@
           <t>BNMPA</t>
         </is>
       </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Bnmpa</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -1347,6 +2391,14 @@
           <t>BOH-2C-B</t>
         </is>
       </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Boh-2C-B</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -1354,6 +2406,14 @@
           <t>BTMPS</t>
         </is>
       </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Btmps</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -1361,6 +2421,14 @@
           <t>BZO-CHMOXIZID</t>
         </is>
       </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Bzo-Chmoxizid</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -1368,6 +2436,14 @@
           <t>BZO-POXIZID</t>
         </is>
       </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Bzo-Poxizid</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -1375,6 +2451,14 @@
           <t>Baclofen</t>
         </is>
       </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Baclofen</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -1382,6 +2466,14 @@
           <t>Bendiocarb</t>
         </is>
       </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Bendiocarb</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -1389,6 +2481,14 @@
           <t>Benzaldehyde</t>
         </is>
       </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Benzaldehyde</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -1396,6 +2496,14 @@
           <t>Benzocaine</t>
         </is>
       </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Benzocaine</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -1403,6 +2511,14 @@
           <t>Benzoic Acid</t>
         </is>
       </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Benzoic Acid</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -1410,6 +2526,14 @@
           <t>Benzoic acid</t>
         </is>
       </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Benzoic Acid</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -1417,6 +2541,14 @@
           <t>Benzolecgonine</t>
         </is>
       </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Benzolecgonine</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -1424,6 +2556,14 @@
           <t>Benzoyecgonine</t>
         </is>
       </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Benzoyecgonine</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -1431,6 +2571,14 @@
           <t>Benzoylecgonine</t>
         </is>
       </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Benzoylecgonine</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -1438,6 +2586,14 @@
           <t>Benzoylecgonine (BZ)</t>
         </is>
       </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Benzoylecgonine (Bz)</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -1445,6 +2601,14 @@
           <t>Benzyl Alcohol</t>
         </is>
       </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Benzyl Alcohol</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -1452,6 +2616,14 @@
           <t>Benzyl Benzoate</t>
         </is>
       </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Benzyl Benzoate</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -1459,6 +2631,14 @@
           <t>Benzyl benzoate</t>
         </is>
       </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Benzyl Benzoate</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -1466,6 +2646,14 @@
           <t>Benzyl fentanyl</t>
         </is>
       </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Benzyl Fentanyl</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -1473,6 +2661,14 @@
           <t>Benzylecgonine</t>
         </is>
       </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Benzylecgonine</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -1480,6 +2676,14 @@
           <t>Benzylfentanyl</t>
         </is>
       </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Benzylfentanyl</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -1487,6 +2691,14 @@
           <t>Benzylfentanyl 4-anilinopiperidine</t>
         </is>
       </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Benzylfentanyl 4-Anilinopiperidine</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -1494,6 +2706,14 @@
           <t>Beta-Methoxy 2C-B</t>
         </is>
       </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Beta-Methoxy 2C-B</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -1501,6 +2721,14 @@
           <t>Beta-hydroxyfentanyl</t>
         </is>
       </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Beta-Hydroxyfentanyl</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -1508,6 +2736,14 @@
           <t>Betahydroxyfentanyl</t>
         </is>
       </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Betahydroxyfentanyl</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -1515,6 +2751,14 @@
           <t>Betaine</t>
         </is>
       </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Betaine</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -1522,6 +2766,14 @@
           <t>Bis(2-ethylhexyl) isophthalate</t>
         </is>
       </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Bis(2-Ethylhexyl) Isophthalate</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -1529,6 +2781,14 @@
           <t>Bis(2266-Tetramethyl-4-Piperidyl) Sebacate</t>
         </is>
       </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Bis(2266-Tetramethyl-4-Piperidyl) Sebacate</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -1536,6 +2796,14 @@
           <t>Bis(2266-tetramethyl-4-piperidyl) sebacate</t>
         </is>
       </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Bis(2266-Tetramethyl-4-Piperidyl) Sebacate</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -1543,6 +2811,14 @@
           <t>Bromazolam</t>
         </is>
       </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Bromazolam</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -1550,6 +2826,14 @@
           <t>Bromobenzene</t>
         </is>
       </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Bromobenzene</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -1557,6 +2841,14 @@
           <t>Brorphine</t>
         </is>
       </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Brorphine</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -1564,6 +2856,14 @@
           <t>Bufotenine (5-OH-DMT)</t>
         </is>
       </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Bufotenine (5-Oh-Dmt)</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -1571,6 +2871,14 @@
           <t>Bupivacaine</t>
         </is>
       </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Bupivacaine</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -1578,6 +2886,14 @@
           <t>Buprenorphine</t>
         </is>
       </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Buprenorphine</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -1585,6 +2901,14 @@
           <t>Bupropion</t>
         </is>
       </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Bupropion</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -1592,6 +2916,14 @@
           <t>Buspirone</t>
         </is>
       </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Buspirone</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -1599,6 +2931,14 @@
           <t>Butryl Fentanyl</t>
         </is>
       </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Butryl Fentanyl</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -1606,6 +2946,14 @@
           <t>Butylated hydroxytoluene</t>
         </is>
       </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Butylated Hydroxytoluene</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -1613,6 +2961,14 @@
           <t>Butylfentanyl</t>
         </is>
       </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Butylfentanyl</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -1620,6 +2976,14 @@
           <t>Butyrlfentanyl</t>
         </is>
       </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Butyrlfentanyl</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -1627,6 +2991,14 @@
           <t>Butyryl Fentanyl</t>
         </is>
       </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Butyryl Fentanyl</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -1634,6 +3006,14 @@
           <t>Butyryl fentanyl</t>
         </is>
       </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Butyryl Fentanyl</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -1641,6 +3021,14 @@
           <t>Butyrylfentanyl</t>
         </is>
       </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Butyrylfentanyl</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -1648,6 +3036,14 @@
           <t>Buyrylfentanyl</t>
         </is>
       </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Buyrylfentanyl</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -1655,6 +3051,14 @@
           <t>CBD</t>
         </is>
       </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Cbd</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -1662,6 +3066,14 @@
           <t>CBN</t>
         </is>
       </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Cbn</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -1669,6 +3081,14 @@
           <t>Caffeine</t>
         </is>
       </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Caffeine</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -1676,6 +3096,14 @@
           <t>Cannabidiol</t>
         </is>
       </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Cannabidiol</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -1683,6 +3111,14 @@
           <t>Cannabigerol</t>
         </is>
       </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Cannabigerol</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -1690,6 +3126,14 @@
           <t>Cannabinol</t>
         </is>
       </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Cannabinol</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -1697,6 +3141,14 @@
           <t>Cannibinol</t>
         </is>
       </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Cannibinol</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -1704,6 +3156,14 @@
           <t>Capric acid</t>
         </is>
       </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Capric Acid</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -1711,6 +3171,14 @@
           <t>Caprylic acid</t>
         </is>
       </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Caprylic Acid</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -1718,6 +3186,14 @@
           <t>Capsaicin</t>
         </is>
       </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Capsaicin</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -1725,6 +3201,14 @@
           <t>Carbendazim</t>
         </is>
       </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Carbendazim</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -1732,6 +3216,14 @@
           <t>Carfentanil</t>
         </is>
       </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Carfentanil</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -1739,6 +3231,14 @@
           <t>Carisoprodol</t>
         </is>
       </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Carisoprodol</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -1746,6 +3246,14 @@
           <t>Cellulose (Microcrystalline Cellulose)</t>
         </is>
       </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Cellulose (Microcrystalline Cellulose)</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -1753,6 +3261,14 @@
           <t>Chloromethcathinone</t>
         </is>
       </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Chloromethcathinone</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -1760,6 +3276,14 @@
           <t>Chlorphine</t>
         </is>
       </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Chlorphine</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -1767,6 +3291,14 @@
           <t>Citalopram/Escitalopram</t>
         </is>
       </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Citalopram/Escitalopram</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -1774,6 +3306,14 @@
           <t>Clindamycin</t>
         </is>
       </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Clindamycin</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -1781,6 +3321,14 @@
           <t>Clomiphene</t>
         </is>
       </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Clomiphene</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -1788,6 +3336,14 @@
           <t>Clonazepam</t>
         </is>
       </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Clonazepam</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -1795,6 +3351,14 @@
           <t>Clonazolam</t>
         </is>
       </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Clonazolam</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -1802,6 +3366,14 @@
           <t>Clonidine</t>
         </is>
       </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Clonidine</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -1809,6 +3381,14 @@
           <t>Cocaethylene</t>
         </is>
       </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Cocaethylene</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -1816,6 +3396,14 @@
           <t>Cocaine</t>
         </is>
       </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Cocaine</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -1823,6 +3411,14 @@
           <t>Cocaine ()</t>
         </is>
       </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Cocaine ()</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -1830,6 +3426,14 @@
           <t>Codeine</t>
         </is>
       </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Codeine</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -1837,6 +3441,14 @@
           <t>Cotinine</t>
         </is>
       </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Cotinine</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -1844,6 +3456,14 @@
           <t>Creatinine</t>
         </is>
       </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Creatinine</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -1851,6 +3471,14 @@
           <t>Cybutylone</t>
         </is>
       </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Cybutylone</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -1858,6 +3486,14 @@
           <t>Cyclobenzaprine</t>
         </is>
       </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Cyclobenzaprine</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -1865,6 +3501,14 @@
           <t>Cyclohexanone</t>
         </is>
       </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Cyclohexanone</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -1872,6 +3516,14 @@
           <t>Cyclohexylamine</t>
         </is>
       </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Cyclohexylamine</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -1879,6 +3531,14 @@
           <t>Cyclopropyl</t>
         </is>
       </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Cyclopropyl</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -1886,6 +3546,14 @@
           <t>Cyproheptadine</t>
         </is>
       </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Cyproheptadine</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -1893,6 +3561,14 @@
           <t>DEET</t>
         </is>
       </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Deet</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -1900,6 +3576,14 @@
           <t>DEET (Diethyltoluamide)</t>
         </is>
       </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Deet (Diethyltoluamide)</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -1907,6 +3591,14 @@
           <t>DMT</t>
         </is>
       </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Dmt</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -1914,6 +3606,14 @@
           <t>DOM</t>
         </is>
       </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Dom</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -1921,6 +3621,14 @@
           <t>DPT</t>
         </is>
       </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Dpt</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -1928,6 +3636,14 @@
           <t>DXM</t>
         </is>
       </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Dxm</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -1935,6 +3651,14 @@
           <t>Delta-8-THC</t>
         </is>
       </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Delta-8-Thc</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -1942,6 +3666,14 @@
           <t>Delta-9 Tetrahydrocannabinol</t>
         </is>
       </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Delta-9 Tetrahydrocannabinol</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -1949,6 +3681,14 @@
           <t>Delta-9-THC</t>
         </is>
       </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Delta-9-Thc</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -1956,6 +3696,14 @@
           <t>Delta-9-THC Acetate</t>
         </is>
       </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Delta-9-Thc Acetate</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -1963,6 +3711,14 @@
           <t>Delta-9THC</t>
         </is>
       </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Delta-9Thc</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -1970,6 +3726,14 @@
           <t>Delta9-THC</t>
         </is>
       </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Delta9-Thc</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -1977,6 +3741,14 @@
           <t>Denatonium</t>
         </is>
       </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Denatonium</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -1984,6 +3756,14 @@
           <t>Deoxymethoxetamine</t>
         </is>
       </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Deoxymethoxetamine</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -1991,6 +3771,14 @@
           <t>Desalkylflurazepam</t>
         </is>
       </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Desalkylflurazepam</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -1998,6 +3786,14 @@
           <t>Desalkylgidazepam</t>
         </is>
       </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Desalkylgidazepam</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -2005,6 +3801,14 @@
           <t>Desalkylquazepam</t>
         </is>
       </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Desalkylquazepam</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -2012,6 +3816,14 @@
           <t>Deschloroetizolam</t>
         </is>
       </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Deschloroetizolam</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -2019,6 +3831,14 @@
           <t>Deschloroketamine</t>
         </is>
       </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Deschloroketamine</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -2026,6 +3846,14 @@
           <t>Despropinonyl-para-fluorofentanyl</t>
         </is>
       </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Despropinonyl-Para-Fluorofentanyl</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -2033,6 +3861,14 @@
           <t>Despropionyl Carfentanil</t>
         </is>
       </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Despropionyl Carfentanil</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -2040,6 +3876,14 @@
           <t>Despropionyl Ortho-Methylfentanyl</t>
         </is>
       </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Despropionyl Ortho-Methylfentanyl</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -2047,6 +3891,14 @@
           <t>Despropionyl P-Fluorofentanyl</t>
         </is>
       </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Despropionyl P-Fluorofentanyl</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -2054,6 +3906,14 @@
           <t>Despropionyl meta-methyl fentanyl</t>
         </is>
       </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Despropionyl Meta-Methyl Fentanyl</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -2061,6 +3921,14 @@
           <t>Despropionyl meta/para-Methyl Fentanyl</t>
         </is>
       </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Despropionyl Meta/Para-Methyl Fentanyl</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -2068,6 +3936,14 @@
           <t>Despropionyl ortho-Fluorofentanyl</t>
         </is>
       </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Despropionyl Ortho-Fluorofentanyl</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -2075,6 +3951,14 @@
           <t>Despropionyl ortho-Methylfentanyl</t>
         </is>
       </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Despropionyl Ortho-Methylfentanyl</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -2082,6 +3966,14 @@
           <t>Despropionyl p-fluorofentanyl</t>
         </is>
       </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Despropionyl P-Fluorofentanyl</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -2089,6 +3981,14 @@
           <t>Despropionyl para-Fluorofentanyl</t>
         </is>
       </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Despropionyl Para-Fluorofentanyl</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -2096,6 +3996,14 @@
           <t>Despropionyl para-fluoro fentanyl</t>
         </is>
       </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Despropionyl Para-Fluoro Fentanyl</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -2103,6 +4011,14 @@
           <t>Despropionyl-3-methylfentanyl</t>
         </is>
       </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Despropionyl-3-Methylfentanyl</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -2110,6 +4026,14 @@
           <t>Despropionyl-4-bromofentanyl</t>
         </is>
       </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Despropionyl-4-Bromofentanyl</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -2117,6 +4041,14 @@
           <t>Despropionyl-4-fluorofentanyl</t>
         </is>
       </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Despropionyl-4-Fluorofentanyl</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -2124,6 +4056,14 @@
           <t>Despropionyl-R-fluorofentanyl</t>
         </is>
       </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Despropionyl-R-Fluorofentanyl</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -2131,6 +4071,14 @@
           <t>Despropionyl-para-fluoro fentanyl</t>
         </is>
       </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Despropionyl-Para-Fluoro Fentanyl</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -2138,6 +4086,14 @@
           <t>Despropionyl-para-fluoro-fentanyl</t>
         </is>
       </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Despropionyl-Para-Fluoro-Fentanyl</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -2145,6 +4101,14 @@
           <t>Despropionyl-para-fluorofentanyl</t>
         </is>
       </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Despropionyl-Para-Fluorofentanyl</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -2152,6 +4116,14 @@
           <t>Despropionyl-para-fluorofentanyl 4-anilinopiperidine</t>
         </is>
       </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Despropionyl-Para-Fluorofentanyl 4-Anilinopiperidine</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -2159,6 +4131,14 @@
           <t>Despropionyl-para-flurofentanyl</t>
         </is>
       </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Despropionyl-Para-Flurofentanyl</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -2166,6 +4146,14 @@
           <t>Desproprionyl ortho-Methylfentanyl</t>
         </is>
       </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Desproprionyl Ortho-Methylfentanyl</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -2173,6 +4161,14 @@
           <t>Dextromethorphan</t>
         </is>
       </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Dextromethorphan</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -2180,6 +4176,14 @@
           <t>Dextrorphan</t>
         </is>
       </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Dextrorphan</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -2187,6 +4191,14 @@
           <t>Diacetamate</t>
         </is>
       </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Diacetamate</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -2194,6 +4206,14 @@
           <t>Diacetylmorphine</t>
         </is>
       </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Diacetylmorphine</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -2201,6 +4221,14 @@
           <t>Diacetylmorphine (Heroin)</t>
         </is>
       </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Diacetylmorphine (Heroin)</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -2208,6 +4236,14 @@
           <t>Diazepam</t>
         </is>
       </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Diazepam</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -2215,6 +4251,14 @@
           <t>Dibutylone isomer</t>
         </is>
       </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Dibutylone Isomer</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -2222,6 +4266,14 @@
           <t>Diethyl phthalate</t>
         </is>
       </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Diethyl Phthalate</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -2229,6 +4281,14 @@
           <t>Diethylpropion</t>
         </is>
       </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Diethylpropion</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -2236,6 +4296,14 @@
           <t>Dihydrocodeine</t>
         </is>
       </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Dihydrocodeine</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -2243,6 +4311,14 @@
           <t>Diltiazem</t>
         </is>
       </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Diltiazem</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -2250,6 +4326,14 @@
           <t>Dimethyl Sulfone</t>
         </is>
       </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Dimethyl Sulfone</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -2257,6 +4341,14 @@
           <t>Dimethyl Sulfone (MethylsulfonemethaneMSM)</t>
         </is>
       </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Dimethyl Sulfone (Methylsulfonemethanemsm)</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -2264,6 +4356,14 @@
           <t>Dimethyl Sulfone (Methylsulfonylmethane MSM)</t>
         </is>
       </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Dimethyl Sulfone (Methylsulfonylmethane Msm)</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -2271,6 +4371,14 @@
           <t>Dimethyl phthalate</t>
         </is>
       </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Dimethyl Phthalate</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -2278,6 +4386,14 @@
           <t>Dimethyl sulfone</t>
         </is>
       </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Dimethyl Sulfone</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -2285,6 +4401,14 @@
           <t>Dimethylamphetamine</t>
         </is>
       </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Dimethylamphetamine</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -2292,6 +4416,14 @@
           <t>Dimethylpentylone</t>
         </is>
       </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Dimethylpentylone</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -2299,6 +4431,14 @@
           <t>Dimethylsulfone</t>
         </is>
       </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Dimethylsulfone</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -2306,6 +4446,14 @@
           <t>Dimethyltryptamine (DMT)</t>
         </is>
       </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Dimethyltryptamine (Dmt)</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -2313,6 +4461,14 @@
           <t>Dioctyl fumarate</t>
         </is>
       </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Dioctyl Fumarate</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -2320,6 +4476,14 @@
           <t>Dipentylone</t>
         </is>
       </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Dipentylone</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -2327,6 +4491,14 @@
           <t>Diphendydramine</t>
         </is>
       </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Diphendydramine</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -2334,6 +4506,14 @@
           <t>Diphenhdyramine</t>
         </is>
       </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Diphenhdyramine</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -2341,6 +4521,14 @@
           <t>Diphenhydramine</t>
         </is>
       </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Diphenhydramine</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -2348,6 +4536,14 @@
           <t>Diphenyl Sulfone</t>
         </is>
       </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Diphenyl Sulfone</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -2355,6 +4551,14 @@
           <t>Diphhenhydramine</t>
         </is>
       </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Diphhenhydramine</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -2362,6 +4566,14 @@
           <t>Disulfiram</t>
         </is>
       </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Disulfiram</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -2369,6 +4581,14 @@
           <t>Docosanol</t>
         </is>
       </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Docosanol</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -2376,6 +4596,14 @@
           <t>Doxepin</t>
         </is>
       </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Doxepin</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -2383,6 +4611,14 @@
           <t>Doxylamine</t>
         </is>
       </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Doxylamine</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -2390,6 +4626,14 @@
           <t>Duloxetine</t>
         </is>
       </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Duloxetine</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -2397,6 +4641,14 @@
           <t>Eccgonine methyl ester</t>
         </is>
       </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Eccgonine Methyl Ester</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -2404,6 +4656,14 @@
           <t>Ecgonidine</t>
         </is>
       </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Ecgonidine</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -2411,6 +4671,14 @@
           <t>Ecgonidine (ED)</t>
         </is>
       </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Ecgonidine (Ed)</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -2418,6 +4686,14 @@
           <t>Ecgonine</t>
         </is>
       </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Ecgonine</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -2425,6 +4701,14 @@
           <t>Ecgonine Methyl Ester</t>
         </is>
       </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Ecgonine Methyl Ester</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -2432,6 +4716,14 @@
           <t>Ecgonine Methylester (EME)</t>
         </is>
       </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Ecgonine Methylester (Eme)</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -2439,6 +4731,14 @@
           <t>Ecgonine methyl ester</t>
         </is>
       </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Ecgonine Methyl Ester</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -2446,6 +4746,14 @@
           <t>Egonine methyl ester</t>
         </is>
       </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Egonine Methyl Ester</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -2453,6 +4761,14 @@
           <t>Ephedrine</t>
         </is>
       </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Ephedrine</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -2460,6 +4776,14 @@
           <t>Ephedrine or Pseudophedrine (cannot distingush)</t>
         </is>
       </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Ephedrine Or Pseudophedrine (Cannot Distingush)</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -2467,6 +4791,14 @@
           <t>Ergosterol</t>
         </is>
       </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Ergosterol</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -2474,6 +4806,14 @@
           <t>Erythritol</t>
         </is>
       </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Erythritol</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -2481,6 +4821,14 @@
           <t>Estradiol Enanthate</t>
         </is>
       </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Estradiol Enanthate</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -2488,6 +4836,14 @@
           <t>Estradiol Valerate</t>
         </is>
       </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Estradiol Valerate</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -2495,6 +4851,14 @@
           <t>Ethyl 4-ANPP</t>
         </is>
       </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Ethyl 4-Anpp</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -2502,6 +4866,14 @@
           <t>Ethyl 4-Anilinopiperidine-1-Carboxylate</t>
         </is>
       </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Ethyl 4-Anilinopiperidine-1-Carboxylate</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -2509,6 +4881,14 @@
           <t>Ethyl Vanillin</t>
         </is>
       </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Ethyl Vanillin</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -2516,6 +4896,14 @@
           <t>Ethyl-4-ANP</t>
         </is>
       </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>Ethyl-4-Anp</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -2523,6 +4911,14 @@
           <t>Ethyl-4-ANPP</t>
         </is>
       </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Ethyl-4-Anpp</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -2530,6 +4926,14 @@
           <t>Ethylamphetamine</t>
         </is>
       </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Ethylamphetamine</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -2537,6 +4941,14 @@
           <t>Ethylecgonidine</t>
         </is>
       </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Ethylecgonidine</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -2544,6 +4956,14 @@
           <t>Etizolam</t>
         </is>
       </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Etizolam</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -2551,6 +4971,14 @@
           <t>Etonitazene</t>
         </is>
       </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Etonitazene</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -2558,6 +4986,14 @@
           <t>Etonitazepyne</t>
         </is>
       </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Etonitazepyne</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -2565,6 +5001,14 @@
           <t>Eutylone</t>
         </is>
       </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Eutylone</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -2572,6 +5016,14 @@
           <t>Fentanyl</t>
         </is>
       </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Fentanyl</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -2579,6 +5031,14 @@
           <t>Fentanyl HCl / Analogue</t>
         </is>
       </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Fentanyl Hcl / Analogue</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -2586,6 +5046,14 @@
           <t>Fentanyl HCl / Analogue (BT)</t>
         </is>
       </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Fentanyl Hcl / Analogue (Bt)</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -2593,6 +5061,14 @@
           <t>Fentanyl Methyl Carbamate</t>
         </is>
       </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Fentanyl Methyl Carbamate</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -2600,6 +5076,14 @@
           <t>Fentanyl carbamate</t>
         </is>
       </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Fentanyl Carbamate</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -2607,6 +5091,14 @@
           <t>Fentanyl methyl carbamate</t>
         </is>
       </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Fentanyl Methyl Carbamate</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -2614,6 +5106,14 @@
           <t>Flualprazolam</t>
         </is>
       </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Flualprazolam</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -2621,6 +5121,14 @@
           <t>Flubromazepam</t>
         </is>
       </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Flubromazepam</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -2628,6 +5136,14 @@
           <t>Flubromazolam</t>
         </is>
       </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Flubromazolam</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -2635,6 +5151,14 @@
           <t>Fluorexetamine</t>
         </is>
       </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Fluorexetamine</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -2642,6 +5166,14 @@
           <t>Fluoro MBZP (1-methyl-4-benzylpiperazine)</t>
         </is>
       </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Fluoro Mbzp (1-Methyl-4-Benzylpiperazine)</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -2649,6 +5181,14 @@
           <t>Fluoro-norfentanyl</t>
         </is>
       </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Fluoro-Norfentanyl</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -2656,6 +5196,14 @@
           <t>Fluoroamphetamine</t>
         </is>
       </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Fluoroamphetamine</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -2663,6 +5211,14 @@
           <t>Fumaric Acid</t>
         </is>
       </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Fumaric Acid</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -2670,6 +5226,14 @@
           <t>Fumaric acid</t>
         </is>
       </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Fumaric Acid</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -2677,6 +5241,14 @@
           <t>Gabapentin</t>
         </is>
       </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Gabapentin</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -2684,6 +5256,14 @@
           <t>Glycerides (Fats)</t>
         </is>
       </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Glycerides (Fats)</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -2691,6 +5271,14 @@
           <t>Glycerin</t>
         </is>
       </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Glycerin</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -2698,6 +5286,14 @@
           <t>Guaifenesin</t>
         </is>
       </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Guaifenesin</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -2705,6 +5301,14 @@
           <t>Herion</t>
         </is>
       </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Herion</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -2712,6 +5316,14 @@
           <t>Heroin</t>
         </is>
       </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Heroin</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -2719,6 +5331,14 @@
           <t>Hexamine</t>
         </is>
       </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Hexamine</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -2726,6 +5346,14 @@
           <t>Histidine</t>
         </is>
       </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Histidine</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -2733,6 +5361,14 @@
           <t>Hydrocodone</t>
         </is>
       </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Hydrocodone</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -2740,6 +5376,14 @@
           <t>Hydrocotarnine</t>
         </is>
       </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Hydrocotarnine</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -2747,6 +5391,14 @@
           <t>Hydromorphone</t>
         </is>
       </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Hydromorphone</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -2754,6 +5406,14 @@
           <t>Hydroxyzine</t>
         </is>
       </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Hydroxyzine</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -2761,6 +5421,14 @@
           <t>I-phenethyl-4-propionyloxypiperidine</t>
         </is>
       </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>I-Phenethyl-4-Propionyloxypiperidine</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -2768,6 +5436,14 @@
           <t>I-phenethyl-4-propionyloxypiperridine</t>
         </is>
       </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>I-Phenethyl-4-Propionyloxypiperridine</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -2775,6 +5451,14 @@
           <t>Ibuprofen</t>
         </is>
       </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Ibuprofen</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -2782,6 +5466,14 @@
           <t>Inconclusive</t>
         </is>
       </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Inconclusive</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -2789,6 +5481,14 @@
           <t>Inositol</t>
         </is>
       </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Inositol</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -2796,6 +5496,14 @@
           <t>Isopropylbenzylamine</t>
         </is>
       </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Isopropylbenzylamine</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -2803,6 +5511,14 @@
           <t>Isotonitazene</t>
         </is>
       </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Isotonitazene</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -2810,6 +5526,14 @@
           <t>JWH-018</t>
         </is>
       </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Jwh-018</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -2817,6 +5541,14 @@
           <t>Kavain</t>
         </is>
       </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Kavain</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -2824,6 +5556,14 @@
           <t>Ketamine</t>
         </is>
       </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Ketamine</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -2831,6 +5571,14 @@
           <t>Ketamine Precursor A</t>
         </is>
       </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Ketamine Precursor A</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -2838,6 +5586,14 @@
           <t>LSD</t>
         </is>
       </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Lsd</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -2845,6 +5601,14 @@
           <t>Lacosamide</t>
         </is>
       </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Lacosamide</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -2852,6 +5616,14 @@
           <t>Lactose</t>
         </is>
       </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Lactose</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -2859,6 +5631,14 @@
           <t>Lamotrigine</t>
         </is>
       </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Lamotrigine</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -2866,6 +5646,14 @@
           <t>Lauric acid</t>
         </is>
       </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Lauric Acid</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -2873,6 +5661,14 @@
           <t>Levamiole</t>
         </is>
       </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Levamiole</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -2880,6 +5676,14 @@
           <t>Levamisole</t>
         </is>
       </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Levamisole</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -2887,6 +5691,14 @@
           <t>Levetiracetam</t>
         </is>
       </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Levetiracetam</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -2894,6 +5706,14 @@
           <t>Lidocaine</t>
         </is>
       </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Lidocaine</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -2901,6 +5721,14 @@
           <t>Limonene</t>
         </is>
       </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Limonene</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -2908,6 +5736,14 @@
           <t>Lisdexamfetamine</t>
         </is>
       </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Lisdexamfetamine</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -2915,6 +5751,14 @@
           <t>Lisdexamphetamine</t>
         </is>
       </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Lisdexamphetamine</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -2922,6 +5766,14 @@
           <t>Loratadine</t>
         </is>
       </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Loratadine</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -2929,6 +5781,14 @@
           <t>Lorazepam</t>
         </is>
       </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Lorazepam</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -2936,6 +5796,14 @@
           <t>Lysergic Acid Diethylamide (LSD)</t>
         </is>
       </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Lysergic Acid Diethylamide (Lsd)</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -2943,6 +5811,14 @@
           <t>MDA</t>
         </is>
       </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Mda</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -2950,6 +5826,14 @@
           <t>MDA-19</t>
         </is>
       </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Mda-19</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -2957,6 +5841,14 @@
           <t>MDDMA</t>
         </is>
       </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Mddma</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -2964,6 +5856,14 @@
           <t>MDMA</t>
         </is>
       </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Mdma</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -2971,6 +5871,14 @@
           <t>MDMA (3 4-METHYLENEDIOXYMETHAMPHETAMINE)</t>
         </is>
       </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Mdma (3 4-Methylenedioxymethamphetamine)</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -2978,6 +5886,14 @@
           <t>MDMB-4En-PINACA</t>
         </is>
       </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Mdmb-4En-Pinaca</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -2985,6 +5901,14 @@
           <t>MDMB-4en-PINACA</t>
         </is>
       </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Mdmb-4En-Pinaca</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
@@ -2992,6 +5916,14 @@
           <t>MDMB-5-Methyl INACA</t>
         </is>
       </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Mdmb-5-Methyl Inaca</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -2999,6 +5931,14 @@
           <t>MDMB-INACA</t>
         </is>
       </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Mdmb-Inaca</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
@@ -3006,6 +5946,14 @@
           <t>MDPV</t>
         </is>
       </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Mdpv</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
@@ -3013,6 +5961,14 @@
           <t>MMB-FUBINACA</t>
         </is>
       </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Mmb-Fubinaca</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -3020,6 +5976,14 @@
           <t>Mannitol</t>
         </is>
       </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Mannitol</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
@@ -3027,6 +5991,14 @@
           <t>Meclizine</t>
         </is>
       </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Meclizine</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
@@ -3034,6 +6006,14 @@
           <t>Meclonazepam</t>
         </is>
       </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Meclonazepam</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
@@ -3041,6 +6021,14 @@
           <t>Meconin</t>
         </is>
       </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Meconin</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
@@ -3048,6 +6036,14 @@
           <t>Medetomidine</t>
         </is>
       </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Medetomidine</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
@@ -3055,6 +6051,14 @@
           <t>Melatonin</t>
         </is>
       </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Melatonin</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
@@ -3062,6 +6066,14 @@
           <t>Menthol</t>
         </is>
       </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Menthol</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
@@ -3069,6 +6081,14 @@
           <t>Mepivacaine</t>
         </is>
       </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Mepivacaine</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -3076,6 +6096,14 @@
           <t>Mescaline</t>
         </is>
       </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Mescaline</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
@@ -3083,6 +6111,14 @@
           <t>Metamizole</t>
         </is>
       </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Metamizole</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
@@ -3090,6 +6126,14 @@
           <t>Metamizole OR 4-Methylaminoantipyrine</t>
         </is>
       </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Metamizole Or 4-Methylaminoantipyrine</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
@@ -3097,6 +6141,14 @@
           <t>Metandienone</t>
         </is>
       </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Metandienone</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
@@ -3104,6 +6156,14 @@
           <t>Metformin</t>
         </is>
       </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Metformin</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
@@ -3111,6 +6171,14 @@
           <t>Methadone</t>
         </is>
       </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Methadone</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
@@ -3118,6 +6186,14 @@
           <t>Methampetamine</t>
         </is>
       </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Methampetamine</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
@@ -3125,6 +6201,14 @@
           <t>Methamphetamine</t>
         </is>
       </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Methamphetamine</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
@@ -3132,6 +6216,14 @@
           <t>Methamphetamine |</t>
         </is>
       </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Methamphetamine |</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
@@ -3139,6 +6231,14 @@
           <t>Methandrostenolone</t>
         </is>
       </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Methandrostenolone</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
@@ -3146,6 +6246,14 @@
           <t>Methcathinone</t>
         </is>
       </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Methcathinone</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
@@ -3153,6 +6261,14 @@
           <t>Methenolone Enanthate</t>
         </is>
       </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Methenolone Enanthate</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
@@ -3160,6 +6276,14 @@
           <t>Methhylecgonidine</t>
         </is>
       </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Methhylecgonidine</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
@@ -3167,6 +6291,14 @@
           <t>Methlecgonidine</t>
         </is>
       </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Methlecgonidine</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
@@ -3174,6 +6306,14 @@
           <t>Methocarbamol</t>
         </is>
       </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Methocarbamol</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
@@ -3181,6 +6321,14 @@
           <t>Methoxetamine</t>
         </is>
       </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Methoxetamine</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
@@ -3188,6 +6336,14 @@
           <t>Methoxyacetylfentanyl</t>
         </is>
       </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Methoxyacetylfentanyl</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -3195,6 +6351,14 @@
           <t>Methyl Benzoate</t>
         </is>
       </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Methyl Benzoate</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
@@ -3202,6 +6366,14 @@
           <t>Methyl Ecgonidine (MED)</t>
         </is>
       </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Methyl Ecgonidine (Med)</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
@@ -3209,6 +6381,14 @@
           <t>Methyl Ecgonidine (Med)</t>
         </is>
       </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Methyl Ecgonidine (Med)</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
@@ -3216,6 +6396,14 @@
           <t>Methyl Salicylate</t>
         </is>
       </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Methyl Salicylate</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
@@ -3223,6 +6411,14 @@
           <t>Methyl benzoate</t>
         </is>
       </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Methyl Benzoate</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
@@ -3230,6 +6426,14 @@
           <t>Methylbenzoate</t>
         </is>
       </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Methylbenzoate</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
@@ -3237,6 +6441,14 @@
           <t>Methylcgonidine</t>
         </is>
       </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Methylcgonidine</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
@@ -3244,6 +6456,14 @@
           <t>Methylecgonidine</t>
         </is>
       </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Methylecgonidine</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
@@ -3251,6 +6471,14 @@
           <t>Methylecgonine</t>
         </is>
       </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Methylecgonine</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
@@ -3258,6 +6486,14 @@
           <t>Methylecgonine cinnamate</t>
         </is>
       </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Methylecgonine Cinnamate</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
@@ -3265,6 +6501,14 @@
           <t>Methylegondine</t>
         </is>
       </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Methylegondine</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
@@ -3272,6 +6516,14 @@
           <t>Methylenedioxymethamphetamine (MDMA)</t>
         </is>
       </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Methylenedioxymethamphetamine (Mdma)</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
@@ -3279,6 +6531,14 @@
           <t>Methylmethcathinone</t>
         </is>
       </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Methylmethcathinone</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
@@ -3286,6 +6546,14 @@
           <t>Methylone</t>
         </is>
       </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Methylone</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
@@ -3293,6 +6561,14 @@
           <t>Methylphenidate</t>
         </is>
       </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Methylphenidate</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
@@ -3300,6 +6576,14 @@
           <t>Methylsulfonylmethane</t>
         </is>
       </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Methylsulfonylmethane</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
@@ -3307,6 +6591,14 @@
           <t>Methylsulfonylmethane (MSM or Dimethyl sulfone)</t>
         </is>
       </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Methylsulfonylmethane (Msm Or Dimethyl Sulfone)</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
@@ -3314,6 +6606,14 @@
           <t>Methylsulfonylmethane (MSM)</t>
         </is>
       </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Methylsulfonylmethane (Msm)</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
@@ -3321,6 +6621,14 @@
           <t>Metoclopramide</t>
         </is>
       </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Metoclopramide</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
@@ -3328,6 +6636,14 @@
           <t>Metodesnitazene</t>
         </is>
       </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Metodesnitazene</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
@@ -3335,6 +6651,14 @@
           <t>Metonitazene</t>
         </is>
       </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Metonitazene</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
@@ -3342,6 +6666,14 @@
           <t>Metronidazole</t>
         </is>
       </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Metronidazole</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
@@ -3349,6 +6681,14 @@
           <t>Midazolam</t>
         </is>
       </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Midazolam</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -3356,6 +6696,14 @@
           <t>Mirtazapine</t>
         </is>
       </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Mirtazapine</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
@@ -3363,6 +6711,14 @@
           <t>Mitragynine</t>
         </is>
       </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Mitragynine</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
@@ -3370,6 +6726,14 @@
           <t>Morphine</t>
         </is>
       </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Morphine</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -3377,6 +6741,14 @@
           <t>N,N-Diethyl-m-toluamide (DEET)</t>
         </is>
       </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>N,N-Diethyl-M-Toluamide (Deet)</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
@@ -3384,6 +6756,14 @@
           <t>N,N-Dimethylamphetamine</t>
         </is>
       </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>N,N-Dimethylamphetamine</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
@@ -3391,6 +6771,14 @@
           <t>N,N-Dimethylamphetamine (DMA)</t>
         </is>
       </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>N,N-Dimethylamphetamine (Dma)</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -3398,6 +6786,14 @@
           <t>N,N-Dimethylpentylone</t>
         </is>
       </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>N,N-Dimethylpentylone</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
@@ -3405,6 +6801,14 @@
           <t>N,N-Dimethyltryptamine (DMT)</t>
         </is>
       </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>N,N-Dimethyltryptamine (Dmt)</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
@@ -3412,6 +6816,14 @@
           <t>N-(14-dimethylpentyl)-3,4-DMA</t>
         </is>
       </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>N-(14-Dimethylpentyl)-3,4-Dma</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
@@ -3419,6 +6831,14 @@
           <t>N-Acetylmethamphetamine</t>
         </is>
       </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>N-Acetylmethamphetamine</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
@@ -3426,6 +6846,14 @@
           <t>N-Benzyl-N-Cyclohexylamine</t>
         </is>
       </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>N-Benzyl-N-Cyclohexylamine</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -3433,6 +6861,14 @@
           <t>N-Boc Norfentanyl</t>
         </is>
       </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>N-Boc Norfentanyl</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
@@ -3440,6 +6876,14 @@
           <t>N-BocNorfentanyl</t>
         </is>
       </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>N-Bocnorfentanyl</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
@@ -3447,6 +6891,14 @@
           <t>N-Butyl-Aniline</t>
         </is>
       </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>N-Butyl-Aniline</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
@@ -3454,6 +6906,14 @@
           <t>N-Cyclohexyl Methylone</t>
         </is>
       </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>N-Cyclohexyl Methylone</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
@@ -3461,6 +6921,14 @@
           <t>N-Desethyl Etonitazene</t>
         </is>
       </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>N-Desethyl Etonitazene</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
@@ -3468,6 +6936,14 @@
           <t>N-Desethyl Isotonitazene</t>
         </is>
       </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>N-Desethyl Isotonitazene</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
@@ -3475,6 +6951,14 @@
           <t>N-Formylmethamphetamine</t>
         </is>
       </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>N-Formylmethamphetamine</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
@@ -3482,6 +6966,14 @@
           <t>N-Isopropylbenzylamine</t>
         </is>
       </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>N-Isopropylbenzylamine</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
@@ -3489,6 +6981,14 @@
           <t>N-Methyl-Norfentanyl</t>
         </is>
       </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>N-Methyl-Norfentanyl</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
@@ -3496,6 +6996,14 @@
           <t>N-Methyliminopropylbenzene</t>
         </is>
       </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>N-Methyliminopropylbenzene</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
@@ -3503,6 +7011,14 @@
           <t>N-N-dimethyltryptamine</t>
         </is>
       </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>N-N-Dimethyltryptamine</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
@@ -3510,6 +7026,14 @@
           <t>N-Phenethyl-N-Phenylpropionamide</t>
         </is>
       </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>N-Phenethyl-N-Phenylpropionamide</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
@@ -3517,6 +7041,14 @@
           <t>N-Phenyl-Acetamide</t>
         </is>
       </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>N-Phenyl-Acetamide</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
@@ -3524,6 +7056,14 @@
           <t>N-Phenylacetyl-L-Prolylglycine Ethyl Ester</t>
         </is>
       </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>N-Phenylacetyl-L-Prolylglycine Ethyl Ester</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
@@ -3531,6 +7071,14 @@
           <t>N-Phenylpropanamide</t>
         </is>
       </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>N-Phenylpropanamide</t>
+        </is>
+      </c>
+      <c r="C443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
@@ -3538,6 +7086,14 @@
           <t>N-Propionitrile Chlorphine</t>
         </is>
       </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>N-Propionitrile Chlorphine</t>
+        </is>
+      </c>
+      <c r="C444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
@@ -3545,6 +7101,14 @@
           <t>N-Propionyl Norfentanyl</t>
         </is>
       </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>N-Propionyl Norfentanyl</t>
+        </is>
+      </c>
+      <c r="C445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
@@ -3552,6 +7116,14 @@
           <t>N-Propionylfentanyl</t>
         </is>
       </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>N-Propionylfentanyl</t>
+        </is>
+      </c>
+      <c r="C446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
@@ -3559,6 +7131,14 @@
           <t>N-Propionylnorfentanyl</t>
         </is>
       </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>N-Propionylnorfentanyl</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
@@ -3566,6 +7146,14 @@
           <t>N-Pyrrolidino Etonitazene</t>
         </is>
       </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>N-Pyrrolidino Etonitazene</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
@@ -3573,6 +7161,14 @@
           <t>N-Pyrrolidino Protonitazene</t>
         </is>
       </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>N-Pyrrolidino Protonitazene</t>
+        </is>
+      </c>
+      <c r="C449" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
@@ -3580,6 +7176,14 @@
           <t>N-Pyrrolidino-Protonitazene</t>
         </is>
       </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>N-Pyrrolidino-Protonitazene</t>
+        </is>
+      </c>
+      <c r="C450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -3587,6 +7191,14 @@
           <t>N-butyl-aniline</t>
         </is>
       </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>N-Butyl-Aniline</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
@@ -3594,6 +7206,14 @@
           <t>N-desethyl Isotonitazene</t>
         </is>
       </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>N-Desethyl Isotonitazene</t>
+        </is>
+      </c>
+      <c r="C452" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
@@ -3601,6 +7221,14 @@
           <t>N-ethyl Phenethylamine</t>
         </is>
       </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>N-Ethyl Phenethylamine</t>
+        </is>
+      </c>
+      <c r="C453" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
@@ -3608,6 +7236,14 @@
           <t>N-ethylamphetamine</t>
         </is>
       </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>N-Ethylamphetamine</t>
+        </is>
+      </c>
+      <c r="C454" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
@@ -3615,6 +7251,14 @@
           <t>N-ethylpentylone</t>
         </is>
       </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>N-Ethylpentylone</t>
+        </is>
+      </c>
+      <c r="C455" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
@@ -3622,6 +7266,14 @@
           <t>N-isopropylbenzylamine</t>
         </is>
       </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>N-Isopropylbenzylamine</t>
+        </is>
+      </c>
+      <c r="C456" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
@@ -3629,6 +7281,14 @@
           <t>N-methyl Norfentanyl</t>
         </is>
       </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>N-Methyl Norfentanyl</t>
+        </is>
+      </c>
+      <c r="C457" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
@@ -3636,6 +7296,14 @@
           <t>N-methyl fentanyl</t>
         </is>
       </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>N-Methyl Fentanyl</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
@@ -3643,6 +7311,14 @@
           <t>N-methyl norfentanyl</t>
         </is>
       </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>N-Methyl Norfentanyl</t>
+        </is>
+      </c>
+      <c r="C459" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
@@ -3650,6 +7326,14 @@
           <t>N-methyl-fentanyl</t>
         </is>
       </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>N-Methyl-Fentanyl</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
@@ -3657,6 +7341,14 @@
           <t>N-phenylpropanamide</t>
         </is>
       </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>N-Phenylpropanamide</t>
+        </is>
+      </c>
+      <c r="C461" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
@@ -3664,6 +7356,14 @@
           <t>N-propionyl Norfentanyl</t>
         </is>
       </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>N-Propionyl Norfentanyl</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
@@ -3671,6 +7371,14 @@
           <t>N-propylamphetamine</t>
         </is>
       </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>N-Propylamphetamine</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
@@ -3678,6 +7386,14 @@
           <t>N-propylaphetamine</t>
         </is>
       </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>N-Propylaphetamine</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
@@ -3685,6 +7401,14 @@
           <t>N/A</t>
         </is>
       </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
@@ -3692,6 +7416,14 @@
           <t>NMT</t>
         </is>
       </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Nmt</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
@@ -3699,6 +7431,14 @@
           <t>NPP</t>
         </is>
       </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Npp</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
@@ -3706,6 +7446,14 @@
           <t>N_BOC Norfentanyl</t>
         </is>
       </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>N_Boc Norfentanyl</t>
+        </is>
+      </c>
+      <c r="C468" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
@@ -3713,6 +7461,14 @@
           <t>Naloxone</t>
         </is>
       </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Naloxone</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
@@ -3720,6 +7476,14 @@
           <t>Naltrexone</t>
         </is>
       </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Naltrexone</t>
+        </is>
+      </c>
+      <c r="C470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
@@ -3727,6 +7491,14 @@
           <t>Naproxen</t>
         </is>
       </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Naproxen</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
@@ -3734,6 +7506,14 @@
           <t>Natural Cannabinoids</t>
         </is>
       </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Natural Cannabinoids</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
@@ -3741,6 +7521,14 @@
           <t>Niacinamide</t>
         </is>
       </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Niacinamide</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
@@ -3748,6 +7536,14 @@
           <t>Niacinamide (Nicotanimide)</t>
         </is>
       </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Niacinamide (Nicotanimide)</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
@@ -3755,6 +7551,14 @@
           <t>Nicotinamide</t>
         </is>
       </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Nicotinamide</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
@@ -3762,6 +7566,14 @@
           <t>Nicotine</t>
         </is>
       </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Nicotine</t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
@@ -3769,6 +7581,14 @@
           <t>Nicotinine</t>
         </is>
       </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Nicotinine</t>
+        </is>
+      </c>
+      <c r="C477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
@@ -3776,6 +7596,14 @@
           <t>No Compounds Of Interest Detected</t>
         </is>
       </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>No Compounds Of Interest Detected</t>
+        </is>
+      </c>
+      <c r="C478" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
@@ -3783,6 +7611,14 @@
           <t>No Drug Sustance Detected</t>
         </is>
       </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>No Drug Sustance Detected</t>
+        </is>
+      </c>
+      <c r="C479" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
@@ -3790,6 +7626,14 @@
           <t>No active illicit substances detected</t>
         </is>
       </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>No Active Illicit Substances Detected</t>
+        </is>
+      </c>
+      <c r="C480" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
@@ -3797,6 +7641,14 @@
           <t>No substance detected</t>
         </is>
       </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>No Substance Detected</t>
+        </is>
+      </c>
+      <c r="C481" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
@@ -3804,6 +7656,14 @@
           <t>No substances detected</t>
         </is>
       </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>No Substances Detected</t>
+        </is>
+      </c>
+      <c r="C482" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
@@ -3811,6 +7671,14 @@
           <t>No testable sample was present</t>
         </is>
       </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>No Testable Sample Was Present</t>
+        </is>
+      </c>
+      <c r="C483" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
@@ -3818,6 +7686,14 @@
           <t>Non-Specific Phthalate</t>
         </is>
       </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Non-Specific Phthalate</t>
+        </is>
+      </c>
+      <c r="C484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
@@ -3825,6 +7701,14 @@
           <t>None Detected</t>
         </is>
       </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>None Detected</t>
+        </is>
+      </c>
+      <c r="C485" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
@@ -3832,6 +7716,14 @@
           <t>None detected</t>
         </is>
       </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>None Detected</t>
+        </is>
+      </c>
+      <c r="C486" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
@@ -3839,6 +7731,14 @@
           <t>Noramidopyrine</t>
         </is>
       </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Noramidopyrine</t>
+        </is>
+      </c>
+      <c r="C487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
@@ -3846,6 +7746,14 @@
           <t>Norcocaine</t>
         </is>
       </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Norcocaine</t>
+        </is>
+      </c>
+      <c r="C488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
@@ -3853,6 +7761,14 @@
           <t>Norfentanyl</t>
         </is>
       </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Norfentanyl</t>
+        </is>
+      </c>
+      <c r="C489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
@@ -3860,6 +7776,14 @@
           <t>Norketamine</t>
         </is>
       </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Norketamine</t>
+        </is>
+      </c>
+      <c r="C490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
@@ -3867,6 +7791,14 @@
           <t>Noscapine</t>
         </is>
       </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Noscapine</t>
+        </is>
+      </c>
+      <c r="C491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
@@ -3874,6 +7806,14 @@
           <t>Not Tested</t>
         </is>
       </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Not Tested</t>
+        </is>
+      </c>
+      <c r="C492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
@@ -3881,6 +7821,14 @@
           <t>O-Desmethyltramadol</t>
         </is>
       </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>O-Desmethyltramadol</t>
+        </is>
+      </c>
+      <c r="C493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
@@ -3888,6 +7836,14 @@
           <t>Octocrylene</t>
         </is>
       </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Octocrylene</t>
+        </is>
+      </c>
+      <c r="C494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
@@ -3895,6 +7851,14 @@
           <t>Oleamide</t>
         </is>
       </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Oleamide</t>
+        </is>
+      </c>
+      <c r="C495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
@@ -3902,6 +7866,14 @@
           <t>Ondansetron</t>
         </is>
       </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Ondansetron</t>
+        </is>
+      </c>
+      <c r="C496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
@@ -3909,6 +7881,14 @@
           <t>Ortho-Methylfentanyl</t>
         </is>
       </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Ortho-Methylfentanyl</t>
+        </is>
+      </c>
+      <c r="C497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
@@ -3916,6 +7896,14 @@
           <t>Oxandrolone</t>
         </is>
       </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Oxandrolone</t>
+        </is>
+      </c>
+      <c r="C498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
@@ -3923,6 +7911,14 @@
           <t>Oxcarbazepine</t>
         </is>
       </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Oxcarbazepine</t>
+        </is>
+      </c>
+      <c r="C499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
@@ -3930,6 +7926,14 @@
           <t>Oxycodone</t>
         </is>
       </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Oxycodone</t>
+        </is>
+      </c>
+      <c r="C500" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
@@ -3937,6 +7941,14 @@
           <t>P-Fluoro 4-Anilinopiperidine</t>
         </is>
       </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>P-Fluoro 4-Anilinopiperidine</t>
+        </is>
+      </c>
+      <c r="C501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
@@ -3944,6 +7956,14 @@
           <t>P-Fluoro Phenethyl 4-ANPP</t>
         </is>
       </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>P-Fluoro Phenethyl 4-Anpp</t>
+        </is>
+      </c>
+      <c r="C502" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
@@ -3951,6 +7971,14 @@
           <t>P-Fluorofentanyl</t>
         </is>
       </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>P-Fluorofentanyl</t>
+        </is>
+      </c>
+      <c r="C503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
@@ -3958,6 +7986,14 @@
           <t>PCP</t>
         </is>
       </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Pcp</t>
+        </is>
+      </c>
+      <c r="C504" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
@@ -3965,6 +8001,14 @@
           <t>PEG 7</t>
         </is>
       </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Peg 7</t>
+        </is>
+      </c>
+      <c r="C505" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
@@ -3972,6 +8016,14 @@
           <t>PEG 8</t>
         </is>
       </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Peg 8</t>
+        </is>
+      </c>
+      <c r="C506" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
@@ -3979,6 +8031,14 @@
           <t>PEG-7mer</t>
         </is>
       </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Peg-7Mer</t>
+        </is>
+      </c>
+      <c r="C507" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
@@ -3986,6 +8046,14 @@
           <t>PEG-8</t>
         </is>
       </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Peg-8</t>
+        </is>
+      </c>
+      <c r="C508" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
@@ -3993,6 +8061,14 @@
           <t>PEG-8mer</t>
         </is>
       </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Peg-8Mer</t>
+        </is>
+      </c>
+      <c r="C509" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
@@ -4000,6 +8076,14 @@
           <t>PEG-9</t>
         </is>
       </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Peg-9</t>
+        </is>
+      </c>
+      <c r="C510" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
@@ -4007,6 +8091,14 @@
           <t>Palmitic Acid</t>
         </is>
       </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Palmitic Acid</t>
+        </is>
+      </c>
+      <c r="C511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
@@ -4014,6 +8106,14 @@
           <t>Papaverine</t>
         </is>
       </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Papaverine</t>
+        </is>
+      </c>
+      <c r="C512" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
@@ -4021,6 +8121,14 @@
           <t>Para-bromofentanyl</t>
         </is>
       </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Para-Bromofentanyl</t>
+        </is>
+      </c>
+      <c r="C513" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
@@ -4028,6 +8136,14 @@
           <t>Para-fluoro Fentanyl</t>
         </is>
       </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Para-Fluoro Fentanyl</t>
+        </is>
+      </c>
+      <c r="C514" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
@@ -4035,6 +8151,14 @@
           <t>Para-fluoro fentanyl</t>
         </is>
       </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Para-Fluoro Fentanyl</t>
+        </is>
+      </c>
+      <c r="C515" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
@@ -4042,6 +8166,14 @@
           <t>Para-fluoro valeryl fentanyl</t>
         </is>
       </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Para-Fluoro Valeryl Fentanyl</t>
+        </is>
+      </c>
+      <c r="C516" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
@@ -4049,6 +8181,14 @@
           <t>Para-fluoro-4-ANPP</t>
         </is>
       </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Para-Fluoro-4-Anpp</t>
+        </is>
+      </c>
+      <c r="C517" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
@@ -4056,6 +8196,14 @@
           <t>Para-fluoro-Phenethyl-4-ANPP</t>
         </is>
       </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Para-Fluoro-Phenethyl-4-Anpp</t>
+        </is>
+      </c>
+      <c r="C518" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
@@ -4063,6 +8211,14 @@
           <t>Para-fluoro-phenethyl-4-ANPP</t>
         </is>
       </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Para-Fluoro-Phenethyl-4-Anpp</t>
+        </is>
+      </c>
+      <c r="C519" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
@@ -4070,6 +8226,14 @@
           <t>Para-fluoroacetyl fentanyl</t>
         </is>
       </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Para-Fluoroacetyl Fentanyl</t>
+        </is>
+      </c>
+      <c r="C520" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
@@ -4077,6 +8241,14 @@
           <t>Para-fluoroacetylfentanyl</t>
         </is>
       </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Para-Fluoroacetylfentanyl</t>
+        </is>
+      </c>
+      <c r="C521" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
@@ -4084,6 +8256,14 @@
           <t>Para-fluorofentanyl</t>
         </is>
       </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Para-Fluorofentanyl</t>
+        </is>
+      </c>
+      <c r="C522" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
@@ -4091,6 +8271,14 @@
           <t>Paracetamol</t>
         </is>
       </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>Paracetamol</t>
+        </is>
+      </c>
+      <c r="C523" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
@@ -4098,6 +8286,14 @@
           <t>Pavaverine</t>
         </is>
       </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Pavaverine</t>
+        </is>
+      </c>
+      <c r="C524" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
@@ -4105,6 +8301,14 @@
           <t>Pending - See Note</t>
         </is>
       </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Pending - See Note</t>
+        </is>
+      </c>
+      <c r="C525" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
@@ -4112,6 +8316,14 @@
           <t>Pending Identification</t>
         </is>
       </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Pending Identification</t>
+        </is>
+      </c>
+      <c r="C526" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
@@ -4119,6 +8331,14 @@
           <t>Pending Nitazene</t>
         </is>
       </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Pending Nitazene</t>
+        </is>
+      </c>
+      <c r="C527" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
@@ -4126,6 +8346,14 @@
           <t>Phenacetin</t>
         </is>
       </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Phenacetin</t>
+        </is>
+      </c>
+      <c r="C528" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
@@ -4133,6 +8361,14 @@
           <t>Phenathyl 4-ANPP</t>
         </is>
       </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Phenathyl 4-Anpp</t>
+        </is>
+      </c>
+      <c r="C529" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
@@ -4140,6 +8376,14 @@
           <t>Phenazolam</t>
         </is>
       </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Phenazolam</t>
+        </is>
+      </c>
+      <c r="C530" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
@@ -4147,6 +8391,14 @@
           <t>Phenazone</t>
         </is>
       </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>Phenazone</t>
+        </is>
+      </c>
+      <c r="C531" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
@@ -4154,6 +8406,14 @@
           <t>Pheneithyl 4-ANPP</t>
         </is>
       </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>Pheneithyl 4-Anpp</t>
+        </is>
+      </c>
+      <c r="C532" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
@@ -4161,6 +8421,14 @@
           <t>Phenethhyl 4-ANPP</t>
         </is>
       </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Phenethhyl 4-Anpp</t>
+        </is>
+      </c>
+      <c r="C533" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
@@ -4168,6 +8436,14 @@
           <t>Phenethyl</t>
         </is>
       </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Phenethyl</t>
+        </is>
+      </c>
+      <c r="C534" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
@@ -4175,6 +8451,14 @@
           <t>Phenethyl 4-ANPP</t>
         </is>
       </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Phenethyl 4-Anpp</t>
+        </is>
+      </c>
+      <c r="C535" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
@@ -4182,6 +8466,14 @@
           <t>Phenethyl Chloride</t>
         </is>
       </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Phenethyl Chloride</t>
+        </is>
+      </c>
+      <c r="C536" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
@@ -4189,6 +8481,14 @@
           <t>Phenethyl a-ANPP</t>
         </is>
       </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Phenethyl A-Anpp</t>
+        </is>
+      </c>
+      <c r="C537" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
@@ -4196,6 +8496,14 @@
           <t>Phenethyl bromide</t>
         </is>
       </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Phenethyl Bromide</t>
+        </is>
+      </c>
+      <c r="C538" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
@@ -4203,6 +8511,14 @@
           <t>Phenethyl chloride</t>
         </is>
       </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Phenethyl Chloride</t>
+        </is>
+      </c>
+      <c r="C539" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
@@ -4210,6 +8526,14 @@
           <t>Phenethyl-4-ANPP</t>
         </is>
       </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Phenethyl-4-Anpp</t>
+        </is>
+      </c>
+      <c r="C540" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
@@ -4217,6 +8541,14 @@
           <t>Phenethyl4-ANPP</t>
         </is>
       </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Phenethyl4-Anpp</t>
+        </is>
+      </c>
+      <c r="C541" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
@@ -4224,6 +8556,14 @@
           <t>Phenethylbromide</t>
         </is>
       </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Phenethylbromide</t>
+        </is>
+      </c>
+      <c r="C542" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
@@ -4231,6 +8571,14 @@
           <t>Phenibut</t>
         </is>
       </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Phenibut</t>
+        </is>
+      </c>
+      <c r="C543" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
@@ -4238,6 +8586,14 @@
           <t>Phenothiazine</t>
         </is>
       </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Phenothiazine</t>
+        </is>
+      </c>
+      <c r="C544" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
@@ -4245,6 +8601,14 @@
           <t>Phentermine</t>
         </is>
       </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Phentermine</t>
+        </is>
+      </c>
+      <c r="C545" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
@@ -4252,6 +8616,14 @@
           <t>Phenyl Fentanyl</t>
         </is>
       </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Phenyl Fentanyl</t>
+        </is>
+      </c>
+      <c r="C546" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
@@ -4259,6 +8631,14 @@
           <t>Phenylacetyl Fentanyl</t>
         </is>
       </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Phenylacetyl Fentanyl</t>
+        </is>
+      </c>
+      <c r="C547" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
@@ -4266,6 +8646,14 @@
           <t>Phenylephrine</t>
         </is>
       </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Phenylephrine</t>
+        </is>
+      </c>
+      <c r="C548" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
@@ -4273,6 +8661,14 @@
           <t>Phenylfentanyl</t>
         </is>
       </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Phenylfentanyl</t>
+        </is>
+      </c>
+      <c r="C549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
@@ -4280,6 +8676,14 @@
           <t>Phenylpropanolamine</t>
         </is>
       </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>Phenylpropanolamine</t>
+        </is>
+      </c>
+      <c r="C550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
@@ -4287,6 +8691,14 @@
           <t>Phhenethyl 4-ANPP</t>
         </is>
       </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>Phhenethyl 4-Anpp</t>
+        </is>
+      </c>
+      <c r="C551" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
@@ -4294,6 +8706,14 @@
           <t>Pholedrine</t>
         </is>
       </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>Pholedrine</t>
+        </is>
+      </c>
+      <c r="C552" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
@@ -4301,6 +8721,14 @@
           <t>Piperine</t>
         </is>
       </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>Piperine</t>
+        </is>
+      </c>
+      <c r="C553" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
@@ -4308,6 +8736,14 @@
           <t>Prednisone</t>
         </is>
       </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>Prednisone</t>
+        </is>
+      </c>
+      <c r="C554" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
@@ -4315,6 +8751,14 @@
           <t>Pregabalin</t>
         </is>
       </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>Pregabalin</t>
+        </is>
+      </c>
+      <c r="C555" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
@@ -4322,6 +8766,14 @@
           <t>Proadifen</t>
         </is>
       </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>Proadifen</t>
+        </is>
+      </c>
+      <c r="C556" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
@@ -4329,6 +8781,14 @@
           <t>Procaine</t>
         </is>
       </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>Procaine</t>
+        </is>
+      </c>
+      <c r="C557" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
@@ -4336,6 +8796,14 @@
           <t>Procaine (tace)</t>
         </is>
       </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>Procaine (Tace)</t>
+        </is>
+      </c>
+      <c r="C558" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
@@ -4343,6 +8811,14 @@
           <t>Progesterone</t>
         </is>
       </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Progesterone</t>
+        </is>
+      </c>
+      <c r="C559" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
@@ -4350,6 +8826,14 @@
           <t>Promethazine</t>
         </is>
       </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>Promethazine</t>
+        </is>
+      </c>
+      <c r="C560" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
@@ -4357,6 +8841,14 @@
           <t>Propionyl-fluoronorfentanyl</t>
         </is>
       </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>Propionyl-Fluoronorfentanyl</t>
+        </is>
+      </c>
+      <c r="C561" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
@@ -4364,6 +8856,14 @@
           <t>Propranolol</t>
         </is>
       </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>Propranolol</t>
+        </is>
+      </c>
+      <c r="C562" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
@@ -4371,6 +8871,14 @@
           <t>Protonitazene</t>
         </is>
       </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>Protonitazene</t>
+        </is>
+      </c>
+      <c r="C563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
@@ -4378,6 +8886,14 @@
           <t>Pseudoephedrine</t>
         </is>
       </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>Pseudoephedrine</t>
+        </is>
+      </c>
+      <c r="C564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
@@ -4385,6 +8901,14 @@
           <t>Psilocin</t>
         </is>
       </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>Psilocin</t>
+        </is>
+      </c>
+      <c r="C565" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
@@ -4392,6 +8916,14 @@
           <t>Psilocin (Psilocybin)</t>
         </is>
       </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>Psilocin (Psilocybin)</t>
+        </is>
+      </c>
+      <c r="C566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
@@ -4399,6 +8931,14 @@
           <t>Psilocybin / Psilocin</t>
         </is>
       </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>Psilocybin / Psilocin</t>
+        </is>
+      </c>
+      <c r="C567" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
@@ -4406,6 +8946,14 @@
           <t>Pyridoxine</t>
         </is>
       </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>Pyridoxine</t>
+        </is>
+      </c>
+      <c r="C568" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
@@ -4413,6 +8961,14 @@
           <t>Pyridoxine (Vitamin B6)</t>
         </is>
       </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>Pyridoxine (Vitamin B6)</t>
+        </is>
+      </c>
+      <c r="C569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
@@ -4420,6 +8976,14 @@
           <t>Quetiapine</t>
         </is>
       </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Quetiapine</t>
+        </is>
+      </c>
+      <c r="C570" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
@@ -4427,6 +8991,14 @@
           <t>Quinidine</t>
         </is>
       </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Quinidine</t>
+        </is>
+      </c>
+      <c r="C571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
@@ -4434,6 +9006,14 @@
           <t>Quinidine/Quinine</t>
         </is>
       </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>Quinidine/Quinine</t>
+        </is>
+      </c>
+      <c r="C572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
@@ -4441,6 +9021,14 @@
           <t>Quinidine/quinine</t>
         </is>
       </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>Quinidine/Quinine</t>
+        </is>
+      </c>
+      <c r="C573" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
@@ -4448,6 +9036,14 @@
           <t>Quinine</t>
         </is>
       </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>Quinine</t>
+        </is>
+      </c>
+      <c r="C574" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -4455,6 +9051,14 @@
           <t>Quinine Caffeine Fentanyl</t>
         </is>
       </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>Quinine Caffeine Fentanyl</t>
+        </is>
+      </c>
+      <c r="C575" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="inlineStr">
@@ -4462,6 +9066,14 @@
           <t>Retalinic acid</t>
         </is>
       </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>Retalinic Acid</t>
+        </is>
+      </c>
+      <c r="C576" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
@@ -4469,6 +9081,14 @@
           <t>Ritalinic acid</t>
         </is>
       </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>Ritalinic Acid</t>
+        </is>
+      </c>
+      <c r="C577" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="inlineStr">
@@ -4476,6 +9096,14 @@
           <t>SR_17018</t>
         </is>
       </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>Sr_17018</t>
+        </is>
+      </c>
+      <c r="C578" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" t="inlineStr">
@@ -4483,6 +9111,14 @@
           <t>Salicylic Acid</t>
         </is>
       </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>Salicylic Acid</t>
+        </is>
+      </c>
+      <c r="C579" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" t="inlineStr">
@@ -4490,6 +9126,14 @@
           <t>Sample Damaged In Transit</t>
         </is>
       </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>Sample Damaged In Transit</t>
+        </is>
+      </c>
+      <c r="C580" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
@@ -4497,6 +9141,14 @@
           <t>Sertraline</t>
         </is>
       </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>Sertraline</t>
+        </is>
+      </c>
+      <c r="C581" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
@@ -4504,6 +9156,14 @@
           <t>Sildenafil</t>
         </is>
       </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>Sildenafil</t>
+        </is>
+      </c>
+      <c r="C582" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" t="inlineStr">
@@ -4511,6 +9171,14 @@
           <t>Sorbitol</t>
         </is>
       </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>Sorbitol</t>
+        </is>
+      </c>
+      <c r="C583" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" t="inlineStr">
@@ -4518,6 +9186,14 @@
           <t>Stearic Acid</t>
         </is>
       </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>Stearic Acid</t>
+        </is>
+      </c>
+      <c r="C584" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" t="inlineStr">
@@ -4525,6 +9201,14 @@
           <t>Sugar</t>
         </is>
       </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>Sugar</t>
+        </is>
+      </c>
+      <c r="C585" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
@@ -4532,6 +9216,14 @@
           <t>Sulfamethoxazole</t>
         </is>
       </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>Sulfamethoxazole</t>
+        </is>
+      </c>
+      <c r="C586" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" t="inlineStr">
@@ -4539,6 +9231,14 @@
           <t>Synthesis Byproducts</t>
         </is>
       </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>Synthesis Byproducts</t>
+        </is>
+      </c>
+      <c r="C587" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
@@ -4546,6 +9246,14 @@
           <t>Synthetic Cathinone</t>
         </is>
       </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>Synthetic Cathinone</t>
+        </is>
+      </c>
+      <c r="C588" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" t="inlineStr">
@@ -4553,6 +9261,14 @@
           <t>T-Boc Norfentanyl</t>
         </is>
       </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>T-Boc Norfentanyl</t>
+        </is>
+      </c>
+      <c r="C589" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" t="inlineStr">
@@ -4560,6 +9276,14 @@
           <t>TCP</t>
         </is>
       </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>Tcp</t>
+        </is>
+      </c>
+      <c r="C590" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" t="inlineStr">
@@ -4567,6 +9291,14 @@
           <t>THC</t>
         </is>
       </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>Thc</t>
+        </is>
+      </c>
+      <c r="C591" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" t="inlineStr">
@@ -4574,6 +9306,14 @@
           <t>TMA-2</t>
         </is>
       </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>Tma-2</t>
+        </is>
+      </c>
+      <c r="C592" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" t="inlineStr">
@@ -4581,6 +9321,14 @@
           <t>TMP</t>
         </is>
       </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>Tmp</t>
+        </is>
+      </c>
+      <c r="C593" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
@@ -4588,6 +9336,14 @@
           <t>TRUE</t>
         </is>
       </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="C594" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -4595,6 +9351,14 @@
           <t>Tadalafil</t>
         </is>
       </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>Tadalafil</t>
+        </is>
+      </c>
+      <c r="C595" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
@@ -4602,6 +9366,14 @@
           <t>Tamoxifen</t>
         </is>
       </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>Tamoxifen</t>
+        </is>
+      </c>
+      <c r="C596" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
@@ -4609,6 +9381,14 @@
           <t>Tapentadol</t>
         </is>
       </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>Tapentadol</t>
+        </is>
+      </c>
+      <c r="C597" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" t="inlineStr">
@@ -4616,6 +9396,14 @@
           <t>Temazepam</t>
         </is>
       </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>Temazepam</t>
+        </is>
+      </c>
+      <c r="C598" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" t="inlineStr">
@@ -4623,6 +9411,14 @@
           <t>Tentative Identification - See Note</t>
         </is>
       </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>Tentative Identification - See Note</t>
+        </is>
+      </c>
+      <c r="C599" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" t="inlineStr">
@@ -4630,6 +9426,14 @@
           <t>TentativeIdentification-SeeNote</t>
         </is>
       </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>Tentativeidentification-Seenote</t>
+        </is>
+      </c>
+      <c r="C600" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" t="inlineStr">
@@ -4637,6 +9441,14 @@
           <t>Testosterone Cypionate</t>
         </is>
       </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>Testosterone Cypionate</t>
+        </is>
+      </c>
+      <c r="C601" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" t="inlineStr">
@@ -4644,6 +9456,14 @@
           <t>Testosterone Enanthate</t>
         </is>
       </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>Testosterone Enanthate</t>
+        </is>
+      </c>
+      <c r="C602" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" t="inlineStr">
@@ -4651,6 +9471,14 @@
           <t>Testosterone cypionate</t>
         </is>
       </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>Testosterone Cypionate</t>
+        </is>
+      </c>
+      <c r="C603" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" t="inlineStr">
@@ -4658,6 +9486,14 @@
           <t>Testostrone Enanthate</t>
         </is>
       </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>Testostrone Enanthate</t>
+        </is>
+      </c>
+      <c r="C604" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" t="inlineStr">
@@ -4665,6 +9501,14 @@
           <t>Tetracaine</t>
         </is>
       </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>Tetracaine</t>
+        </is>
+      </c>
+      <c r="C605" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
@@ -4672,6 +9516,14 @@
           <t>Tetramisole / Levamisole</t>
         </is>
       </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>Tetramisole / Levamisole</t>
+        </is>
+      </c>
+      <c r="C606" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" t="inlineStr">
@@ -4679,6 +9531,14 @@
           <t>Tetramisole/Levamisole</t>
         </is>
       </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>Tetramisole/Levamisole</t>
+        </is>
+      </c>
+      <c r="C607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" t="inlineStr">
@@ -4686,6 +9546,14 @@
           <t>Thebaine</t>
         </is>
       </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Thebaine</t>
+        </is>
+      </c>
+      <c r="C608" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" t="inlineStr">
@@ -4693,6 +9561,14 @@
           <t>Theobromine</t>
         </is>
       </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Theobromine</t>
+        </is>
+      </c>
+      <c r="C609" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
@@ -4700,6 +9576,14 @@
           <t>Tianeptine</t>
         </is>
       </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Tianeptine</t>
+        </is>
+      </c>
+      <c r="C610" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" t="inlineStr">
@@ -4707,6 +9591,14 @@
           <t>Tiletamine</t>
         </is>
       </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>Tiletamine</t>
+        </is>
+      </c>
+      <c r="C611" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
@@ -4714,6 +9606,14 @@
           <t>Tizanidine</t>
         </is>
       </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>Tizanidine</t>
+        </is>
+      </c>
+      <c r="C612" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
@@ -4721,6 +9621,14 @@
           <t>Topiramate</t>
         </is>
       </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>Topiramate</t>
+        </is>
+      </c>
+      <c r="C613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="inlineStr">
@@ -4728,6 +9636,14 @@
           <t>Tramadol</t>
         </is>
       </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>Tramadol</t>
+        </is>
+      </c>
+      <c r="C614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="inlineStr">
@@ -4735,6 +9651,14 @@
           <t>Trazadone</t>
         </is>
       </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>Trazadone</t>
+        </is>
+      </c>
+      <c r="C615" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="inlineStr">
@@ -4742,6 +9666,14 @@
           <t>Trazodone</t>
         </is>
       </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Trazodone</t>
+        </is>
+      </c>
+      <c r="C616" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="inlineStr">
@@ -4749,6 +9681,14 @@
           <t>Trenbolone Enanthate</t>
         </is>
       </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>Trenbolone Enanthate</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
@@ -4756,6 +9696,14 @@
           <t>Triacetin</t>
         </is>
       </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>Triacetin</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
@@ -4763,6 +9711,14 @@
           <t>Triethyl citrate tentative</t>
         </is>
       </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>Triethyl Citrate Tentative</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="inlineStr">
@@ -4770,6 +9726,14 @@
           <t>Trifluoromethylphenlpeperazine (TFMPP)</t>
         </is>
       </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>Trifluoromethylphenlpeperazine (Tfmpp)</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="inlineStr">
@@ -4777,6 +9741,14 @@
           <t>Trimethoxyamphetamine</t>
         </is>
       </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>Trimethoxyamphetamine</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="inlineStr">
@@ -4784,6 +9756,14 @@
           <t>Tropacocaine</t>
         </is>
       </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>Tropacocaine</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="inlineStr">
@@ -4791,6 +9771,14 @@
           <t>Unidentified</t>
         </is>
       </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>Unidentified</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="inlineStr">
@@ -4798,6 +9786,14 @@
           <t>Unknown Substance</t>
         </is>
       </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>Unknown Substance</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="inlineStr">
@@ -4805,6 +9801,14 @@
           <t>Unknown amphetamine</t>
         </is>
       </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Unknown Amphetamine</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
@@ -4812,6 +9816,14 @@
           <t>Valeryl Fentanyl</t>
         </is>
       </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>Valeryl Fentanyl</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
@@ -4819,6 +9831,14 @@
           <t>Valeryl fentanyl</t>
         </is>
       </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>Valeryl Fentanyl</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
@@ -4826,6 +9846,14 @@
           <t>Valerylfentanyl</t>
         </is>
       </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>Valerylfentanyl</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" t="inlineStr">
@@ -4833,6 +9861,14 @@
           <t>Vanillin</t>
         </is>
       </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>Vanillin</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" t="inlineStr">
@@ -4840,6 +9876,14 @@
           <t>Vitamin C</t>
         </is>
       </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>Vitamin C</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" t="inlineStr">
@@ -4847,6 +9891,14 @@
           <t>Vitamin E</t>
         </is>
       </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>Vitamin E</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" t="inlineStr">
@@ -4854,6 +9906,14 @@
           <t>Vitamin E Acetate</t>
         </is>
       </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>Vitamin E Acetate</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" t="inlineStr">
@@ -4861,6 +9921,14 @@
           <t>Xylaxine</t>
         </is>
       </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>Xylaxine</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" t="inlineStr">
@@ -4868,6 +9936,14 @@
           <t>Xylazine</t>
         </is>
       </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>Xylazine</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" t="inlineStr">
@@ -4875,6 +9951,14 @@
           <t>Zolpidem</t>
         </is>
       </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>Zolpidem</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" t="inlineStr">
@@ -4882,6 +9966,14 @@
           <t>acetyl fentanyl</t>
         </is>
       </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>Acetyl Fentanyl</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" t="inlineStr">
@@ -4889,6 +9981,14 @@
           <t>alpha-D2PV</t>
         </is>
       </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>Alpha-D2Pv</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" t="inlineStr">
@@ -4896,6 +9996,14 @@
           <t>alpha-PHP</t>
         </is>
       </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Alpha-Php</t>
+        </is>
+      </c>
+      <c r="C638" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" t="inlineStr">
@@ -4903,6 +10011,14 @@
           <t>alpha-PiHP</t>
         </is>
       </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Alpha-Pihp</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" t="inlineStr">
@@ -4910,6 +10026,14 @@
           <t>alpha-Pyrrolidinohexanophenone (a-PHP)</t>
         </is>
       </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>Alpha-Pyrrolidinohexanophenone (A-Php)</t>
+        </is>
+      </c>
+      <c r="C640" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" t="inlineStr">
@@ -4917,6 +10041,14 @@
           <t>beta-Hydroxy Fentanyl</t>
         </is>
       </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>Beta-Hydroxy Fentanyl</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" t="inlineStr">
@@ -4924,6 +10056,14 @@
           <t>beta-Methoxy 2C-B</t>
         </is>
       </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>Beta-Methoxy 2C-B</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
@@ -4931,6 +10071,14 @@
           <t>bis(2222-tetramethyl-4-pipderidyl) sebecate</t>
         </is>
       </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>Bis(2222-Tetramethyl-4-Pipderidyl) Sebecate</t>
+        </is>
+      </c>
+      <c r="C643" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" t="inlineStr">
@@ -4938,6 +10086,14 @@
           <t>boc-Norfentanyl</t>
         </is>
       </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>Boc-Norfentanyl</t>
+        </is>
+      </c>
+      <c r="C644" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
@@ -4945,6 +10101,14 @@
           <t>delta-8-THC</t>
         </is>
       </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>Delta-8-Thc</t>
+        </is>
+      </c>
+      <c r="C645" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
@@ -4952,6 +10116,14 @@
           <t>ethyl-4-ANPP</t>
         </is>
       </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>Ethyl-4-Anpp</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" t="inlineStr">
@@ -4959,6 +10131,14 @@
           <t>glycerin</t>
         </is>
       </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>Glycerin</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" t="inlineStr">
@@ -4966,6 +10146,14 @@
           <t>methyl ecgonidine (MED)</t>
         </is>
       </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>Methyl Ecgonidine (Med)</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
@@ -4973,6 +10161,14 @@
           <t>nan</t>
         </is>
       </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>Nan</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" t="inlineStr">
@@ -4980,6 +10176,14 @@
           <t>ortho-Methyl-4-ANPP</t>
         </is>
       </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>Ortho-Methyl-4-Anpp</t>
+        </is>
+      </c>
+      <c r="C650" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" t="inlineStr">
@@ -4987,6 +10191,14 @@
           <t>ortho-Methylfentanyl</t>
         </is>
       </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Ortho-Methylfentanyl</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" t="inlineStr">
@@ -4994,6 +10206,14 @@
           <t>para-Fluoro Norfentanyl</t>
         </is>
       </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Para-Fluoro Norfentanyl</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
@@ -5001,6 +10221,14 @@
           <t>para-Fluoro Valeryl Fentanyl</t>
         </is>
       </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Para-Fluoro Valeryl Fentanyl</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" t="inlineStr">
@@ -5008,6 +10236,14 @@
           <t>para-Fluoro-4-ANPP</t>
         </is>
       </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Para-Fluoro-4-Anpp</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" t="inlineStr">
@@ -5015,6 +10251,14 @@
           <t>para-Fluoro-4-ANPP + 4-ANPP</t>
         </is>
       </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Para-Fluoro-4-Anpp + 4-Anpp</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" t="inlineStr">
@@ -5022,6 +10266,14 @@
           <t>para-Fluoro-Phenethyl-4-ANPP</t>
         </is>
       </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Para-Fluoro-Phenethyl-4-Anpp</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" t="inlineStr">
@@ -5029,6 +10281,14 @@
           <t>para-Fluorofentanyl</t>
         </is>
       </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Para-Fluorofentanyl</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" t="inlineStr">
@@ -5036,6 +10296,14 @@
           <t>para-Methyl Fentanyl</t>
         </is>
       </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Para-Methyl Fentanyl</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
@@ -5043,6 +10311,14 @@
           <t>phenethyl 4-ANPP</t>
         </is>
       </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Phenethyl 4-Anpp</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
@@ -5050,6 +10326,14 @@
           <t>t-Boc</t>
         </is>
       </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>T-Boc</t>
+        </is>
+      </c>
+      <c r="C660" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" t="inlineStr">
@@ -5057,6 +10341,14 @@
           <t>test</t>
         </is>
       </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="C661" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" t="inlineStr">
@@ -5064,12 +10356,28 @@
           <t>threo-4-Methylmethylphenidate (4-MeTMP)</t>
         </is>
       </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Threo-4-Methylmethylphenidate (4-Metmp)</t>
+        </is>
+      </c>
+      <c r="C662" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
           <t>Α-Pyrrolidinoisohexanophenone</t>
         </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Α-Pyrrolidinoisohexanophenone</t>
+        </is>
+      </c>
+      <c r="C663" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
